--- a/Datos_06_julio.xlsx
+++ b/Datos_06_julio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscofernandezschlein/Documents/GitHub/Proyecto-Fisis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FranciscoFS\Documents\GitHub\Proyecto-Fisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226887F-852E-4547-A01D-B890E348D7E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,8 +860,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -911,6 +912,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1178,36 +1182,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="23" max="23" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.5" customWidth="1"/>
-    <col min="26" max="26" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" customWidth="1"/>
+    <col min="26" max="26" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1292,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +1446,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1521,7 +1526,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1915,7 +1920,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2154,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -2383,7 +2388,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2457,7 +2462,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>78</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2765,7 +2770,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -3147,7 +3152,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -3375,7 +3380,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3455,7 +3460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -3508,7 +3513,7 @@
         <v>32.842298671744381</v>
       </c>
       <c r="R30">
-        <v>61695.097290039062</v>
+        <v>61695.097290039063</v>
       </c>
       <c r="S30">
         <v>53.054681679677707</v>
@@ -3535,7 +3540,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3609,7 +3614,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -3683,7 +3688,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3757,7 +3762,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -3831,7 +3836,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -3905,7 +3910,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +3984,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -4139,7 +4144,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -4293,7 +4298,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -4373,7 +4378,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -4453,7 +4458,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -4533,7 +4538,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -4613,7 +4618,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -4693,7 +4698,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -4847,7 +4852,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
@@ -5087,7 +5092,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -5167,7 +5172,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26">
       <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
@@ -5247,7 +5252,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26">
       <c r="A54" s="1" t="s">
         <v>43</v>
       </c>
@@ -5407,7 +5412,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -5487,7 +5492,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -5567,7 +5572,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -5647,7 +5652,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -5727,7 +5732,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
@@ -5801,7 +5806,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
@@ -5875,7 +5880,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26">
       <c r="A61" s="1" t="s">
         <v>53</v>
       </c>
@@ -5949,7 +5954,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -6103,7 +6108,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
@@ -6183,7 +6188,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26">
       <c r="A65" s="1" t="s">
         <v>58</v>
       </c>
@@ -6263,7 +6268,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26">
       <c r="A66" s="1" t="s">
         <v>59</v>
       </c>
@@ -6343,7 +6348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26">
       <c r="A67" s="1" t="s">
         <v>60</v>
       </c>
@@ -6423,7 +6428,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -6503,7 +6508,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26">
       <c r="A69" s="1" t="s">
         <v>62</v>
       </c>
@@ -6583,7 +6588,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26">
       <c r="A70" s="1" t="s">
         <v>63</v>
       </c>
@@ -6663,7 +6668,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
@@ -6743,7 +6748,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -6823,7 +6828,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26">
       <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
@@ -6903,7 +6908,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26">
       <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
@@ -6983,7 +6988,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26">
       <c r="A75" s="1" t="s">
         <v>70</v>
       </c>
@@ -7063,7 +7068,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
@@ -7143,7 +7148,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26">
       <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
@@ -7223,7 +7228,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -7303,7 +7308,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26">
       <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
@@ -7383,7 +7388,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26">
       <c r="A80" s="1" t="s">
         <v>75</v>
       </c>
@@ -7463,7 +7468,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26">
       <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
@@ -7471,7 +7476,7 @@
         <v>4053.3638000488281</v>
       </c>
       <c r="C81">
-        <v>4421.7300415039062</v>
+        <v>4421.7300415039063</v>
       </c>
       <c r="D81">
         <v>269.96612548828125</v>
@@ -7549,24 +7554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos_06_julio.xlsx
+++ b/Datos_06_julio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FranciscoFS\Documents\GitHub\Proyecto-Fisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscofernandezschlein/Documents/GitHub/Proyecto-Fisis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226887F-852E-4547-A01D-B890E348D7E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,8 +859,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1182,37 +1181,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z1" activeCellId="3" sqref="W1:W1048576 X1:X1048576 Y1:Y1048576 Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="21" width="11.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" customWidth="1"/>
-    <col min="26" max="26" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="20.5" customWidth="1"/>
+    <col min="26" max="26" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,98 +1291,104 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>8194.5185167193213</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7229.5091691911039</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>674.60623079538175</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>37.568592028827496</v>
+        <v>-56.309932474020215</v>
       </c>
       <c r="L2">
-        <v>2.0395859761364394</v>
+        <v>-6.3871172060896422</v>
       </c>
       <c r="M2">
-        <v>-38.659808254090095</v>
+        <v>-42.510447078000851</v>
       </c>
       <c r="N2">
-        <v>-2.1210963271899894</v>
+        <v>-3.9133906832541432</v>
       </c>
       <c r="O2">
-        <v>5.0782117957858475</v>
+        <v>8.4299847260881791</v>
+      </c>
+      <c r="P2">
+        <v>16.474647185160112</v>
+      </c>
+      <c r="Q2">
+        <v>26.49262046013601</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>34422.924020051869</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>48.917849385581242</v>
       </c>
       <c r="T2">
-        <v>88</v>
+        <v>56.94999837875352</v>
       </c>
       <c r="U2">
-        <v>61.300074890413946</v>
+        <v>42.907792393855075</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>5.7228571428571424</v>
       </c>
       <c r="W2">
-        <v>20160421</v>
+        <v>20111125</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Z2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>5028.9775729000557</v>
+        <v>4211.1328125</v>
       </c>
       <c r="C3">
-        <v>4456.5485883414103</v>
+        <v>2822.75390625</v>
       </c>
       <c r="D3">
-        <v>245.20674350776181</v>
+        <v>297.36328125</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>166</v>
@@ -1398,155 +1403,149 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>-4.7636416907261774</v>
+        <v>-34.69515353123397</v>
       </c>
       <c r="L3">
-        <v>-0.41198448506072793</v>
+        <v>-4.1247666061423818</v>
       </c>
       <c r="M3">
-        <v>-47.12109639666145</v>
+        <v>-45</v>
       </c>
       <c r="N3">
-        <v>-5.3089530101863387</v>
+        <v>-5.9468630539735008</v>
       </c>
       <c r="O3">
-        <v>3.9294759523429548</v>
+        <v>13.51977238500298</v>
       </c>
       <c r="P3">
-        <v>21.954132427307208</v>
+        <v>17.548597833014657</v>
       </c>
       <c r="Q3">
-        <v>32.445034907284032</v>
+        <v>26.460805510860823</v>
       </c>
       <c r="R3">
-        <v>64009.876794106654</v>
+        <v>31920.99609375</v>
       </c>
       <c r="S3">
-        <v>52.899863282741002</v>
+        <v>53.000063236030911</v>
       </c>
       <c r="T3">
-        <v>66.999998092651197</v>
+        <v>54</v>
       </c>
       <c r="U3">
-        <v>54.008251809287302</v>
+        <v>32.224499256699936</v>
       </c>
       <c r="V3">
-        <v>1.9308725421348316</v>
+        <v>3.7393162393162392E-2</v>
       </c>
       <c r="W3">
-        <v>20101026</v>
+        <v>20101019</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="Y3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="Z3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4192.8614966013747</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3713.1645299700667</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>392.81307726696411</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-14.036243467926477</v>
+        <v>-8.1301023541559783</v>
       </c>
       <c r="L4">
-        <v>-1.2851890785853615</v>
+        <v>-0.59376472361139565</v>
       </c>
       <c r="M4">
-        <v>-40.236358309273818</v>
+        <v>-49.085616779974877</v>
       </c>
       <c r="N4">
-        <v>-4.3422677729815931</v>
+        <v>-4.7848094294927046</v>
       </c>
       <c r="O4">
-        <v>1.6250527649874726</v>
-      </c>
-      <c r="P4">
-        <v>20.387191978199674</v>
-      </c>
-      <c r="Q4">
-        <v>31.936654531342406</v>
+        <v>9.411504207636824</v>
       </c>
       <c r="R4">
-        <v>58513.648100590581</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>50.859061449661759</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>66.600000858306785</v>
+        <v>66.5</v>
       </c>
       <c r="U4">
-        <v>50.099303671195813</v>
+        <v>45.692400593798325</v>
       </c>
       <c r="V4">
-        <v>2.2475961538461537</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>20110217</v>
+        <v>20170526</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="Y4" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Z4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>8590.4466304480811</v>
+        <v>4730.810546875</v>
       </c>
       <c r="C5">
-        <v>7533.312285542469</v>
+        <v>3815.478515625</v>
       </c>
       <c r="D5">
-        <v>362.21873968839554</v>
+        <v>476.46484375</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1558,158 +1557,152 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>-39.805571092265197</v>
+        <v>-6.3401917459099089</v>
       </c>
       <c r="L5">
-        <v>-3.5585876035999666</v>
+        <v>-0.56839186467939451</v>
       </c>
       <c r="M5">
-        <v>-12.994616791916506</v>
+        <v>-56.309932474020215</v>
       </c>
       <c r="N5">
-        <v>-0.98662659874818059</v>
+        <v>-7.6281496685807095</v>
       </c>
       <c r="O5">
-        <v>3.4334511037174877</v>
+        <v>0.50160588058554367</v>
       </c>
       <c r="P5">
-        <v>20.144296125987452</v>
+        <v>17.120930783817951</v>
       </c>
       <c r="Q5">
-        <v>29.824144745808908</v>
+        <v>27.454461348684205</v>
       </c>
       <c r="R5">
-        <v>58732.826453000162</v>
+        <v>36498.095703125</v>
       </c>
       <c r="S5">
-        <v>48.892014557014981</v>
+        <v>51.178049364965247</v>
       </c>
       <c r="T5">
-        <v>66.999998092651197</v>
+        <v>56</v>
       </c>
       <c r="U5">
-        <v>52.802891617661139</v>
+        <v>48.919251236619552</v>
       </c>
       <c r="V5">
-        <v>5.7085492227979273</v>
+        <v>2.55661231884058</v>
       </c>
       <c r="W5">
-        <v>20100825</v>
+        <v>20100607</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Z5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>8194.5185167193213</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7229.5091691911039</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>674.60623079538175</v>
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>66</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>39.805571092265197</v>
+      </c>
+      <c r="L6">
+        <v>2.3757738538327775</v>
+      </c>
+      <c r="M6">
+        <v>-52.594643368591449</v>
+      </c>
+      <c r="N6">
+        <v>-3.7250183738481892</v>
+      </c>
+      <c r="O6">
+        <v>10.455344904279841</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>66.600000000000009</v>
+      </c>
+      <c r="U6">
+        <v>45.941905185240792</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>20170531</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2806.0625</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>-56.309932474020215</v>
-      </c>
-      <c r="L6">
-        <v>-6.3871172060896422</v>
-      </c>
-      <c r="M6">
-        <v>-42.510447078000851</v>
-      </c>
-      <c r="N6">
-        <v>-3.9133906832541432</v>
-      </c>
-      <c r="O6">
-        <v>8.4299847260881791</v>
-      </c>
-      <c r="P6">
-        <v>16.474647185160112</v>
-      </c>
-      <c r="Q6">
-        <v>26.49262046013601</v>
-      </c>
-      <c r="R6">
-        <v>34422.924020051869</v>
-      </c>
-      <c r="S6">
-        <v>48.917849385581242</v>
-      </c>
-      <c r="T6">
-        <v>56.94999837875352</v>
-      </c>
-      <c r="U6">
-        <v>42.907792393855075</v>
-      </c>
-      <c r="V6">
-        <v>5.7228571428571424</v>
-      </c>
-      <c r="W6">
-        <v>20111125</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
       <c r="F7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1718,54 +1711,60 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.528807709151511</v>
+        <v>-16.699244233993621</v>
       </c>
       <c r="L7">
-        <v>1.1424305016756808</v>
+        <v>-1.130690951237971</v>
       </c>
       <c r="M7">
-        <v>-45</v>
+        <v>-53.74616226255521</v>
       </c>
       <c r="N7">
-        <v>-5.1278832511186883</v>
+        <v>-5.1264477537176427</v>
       </c>
       <c r="O7">
-        <v>1.5900073628028082</v>
+        <v>7.2030635783039543</v>
+      </c>
+      <c r="P7">
+        <v>20.496886843255002</v>
+      </c>
+      <c r="Q7">
+        <v>30.35806636155607</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>51599.487499999996</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>50.69901594050372</v>
       </c>
       <c r="T7">
-        <v>55.500000715255652</v>
+        <v>60.8</v>
       </c>
       <c r="U7">
-        <v>41.922341310819064</v>
+        <v>44.09055565197702</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2.2114285714285713</v>
       </c>
       <c r="W7">
-        <v>20100430</v>
+        <v>20130806</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="Z7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>210.3515625</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1774,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1792,236 +1791,218 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.7461622625552096</v>
+        <v>-54.462322208025618</v>
       </c>
       <c r="L8">
-        <v>0.91812300233505784</v>
+        <v>-6.6169520457117788</v>
       </c>
       <c r="M8">
-        <v>-39.805571092265197</v>
+        <v>-20.556045219583464</v>
       </c>
       <c r="N8">
-        <v>-4.9611558046634494</v>
+        <v>-1.7797472208371126</v>
       </c>
       <c r="O8">
-        <v>5.8813647857466833</v>
-      </c>
-      <c r="P8">
-        <v>20.447470817120621</v>
-      </c>
-      <c r="Q8">
-        <v>23.848642676767675</v>
+        <v>3.0423451479438626</v>
       </c>
       <c r="R8">
-        <v>34929.19921875</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>40.233589352483023</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>57</v>
+        <v>75.899999999999991</v>
       </c>
       <c r="U8">
-        <v>38.019841279940422</v>
+        <v>57.765273237498853</v>
       </c>
       <c r="V8">
-        <v>1.4747191011235956</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>20100408</v>
+        <v>20170220</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="Z8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>3450.4896008067744</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1960.5929971094531</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>224.17782403098266</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-19.98310652189998</v>
+        <v>9.4623222080256166</v>
       </c>
       <c r="L9">
-        <v>-2.0025328978877672</v>
+        <v>0.53286948478116214</v>
       </c>
       <c r="M9">
-        <v>-47.290610042638534</v>
+        <v>-12.994616791916506</v>
       </c>
       <c r="N9">
-        <v>-5.9468623636681279</v>
+        <v>-0.73779977730621726</v>
       </c>
       <c r="O9">
-        <v>8.8286103895133579</v>
-      </c>
-      <c r="P9">
-        <v>18.162728856329341</v>
-      </c>
-      <c r="Q9">
-        <v>28.021479899814175</v>
+        <v>5.9384656563712781</v>
       </c>
       <c r="R9">
-        <v>44874.468517926995</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>48.520653378091346</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>55.466674804687358</v>
+        <v>68</v>
       </c>
       <c r="U9">
-        <v>43.99274897721029</v>
+        <v>58.499249822718937</v>
       </c>
       <c r="V9">
-        <v>1.598997541388171</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>20101112</v>
+        <v>20170822</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="Z9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2149.3334614435748</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2705.3334945837555</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>379.00002259015895</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-37.568592028827496</v>
+      </c>
+      <c r="L10">
+        <v>-4.0921420692434927</v>
+      </c>
+      <c r="M10">
+        <v>-36.25383773744479</v>
+      </c>
+      <c r="N10">
+        <v>-3.9017796542696503</v>
+      </c>
+      <c r="O10">
+        <v>6.7012250483956848</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>72</v>
+      </c>
+      <c r="U10">
+        <v>56.03196482002857</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>20160617</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>-18.43494882292201</v>
-      </c>
-      <c r="L10">
-        <v>-2.1210964598173079</v>
-      </c>
-      <c r="M10">
-        <v>-33.690067525979785</v>
-      </c>
-      <c r="N10">
-        <v>-4.2363949248535837</v>
-      </c>
-      <c r="O10">
-        <v>4.307587251716285</v>
-      </c>
-      <c r="P10">
-        <v>15.305240570155986</v>
-      </c>
-      <c r="Q10">
-        <v>25.874086455538301</v>
-      </c>
-      <c r="R10">
-        <v>38416.668956478294</v>
-      </c>
-      <c r="S10">
-        <v>42.430132941613927</v>
-      </c>
-      <c r="T10">
-        <v>54</v>
-      </c>
-      <c r="U10">
-        <v>47.020619015966602</v>
-      </c>
-      <c r="V10">
-        <v>2.9580053374992512</v>
-      </c>
-      <c r="W10">
-        <v>20091119</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -2032,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>-30.256437163529274</v>
+        <v>-4.7636416907261774</v>
       </c>
       <c r="L11">
-        <v>-1.9619657198505973</v>
+        <v>-0.27220129649647201</v>
       </c>
       <c r="M11">
-        <v>-35.537677791974382</v>
+        <v>-34.69515353123397</v>
       </c>
       <c r="N11">
-        <v>-2.4019383679760038</v>
+        <v>-2.2602084915249425</v>
       </c>
       <c r="O11">
-        <v>10.640337468563047</v>
+        <v>5.4272289208667104</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2053,498 +2034,492 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>76</v>
+        <v>70.3</v>
       </c>
       <c r="U11">
-        <v>60.680656321342532</v>
+        <v>51.84786475336616</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>20160329</v>
+        <v>20170705</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y11" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Z11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>3450.390625</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>362.890625</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>18.43494882292201</v>
+        <v>37.568592028827496</v>
       </c>
       <c r="L12">
-        <v>1.4917404353727173</v>
+        <v>2.0395859761364394</v>
       </c>
       <c r="M12">
-        <v>-49.398705354995542</v>
+        <v>-38.659808254090095</v>
       </c>
       <c r="N12">
-        <v>-5.207881778939357</v>
+        <v>-2.1210963271899894</v>
       </c>
       <c r="O12">
-        <v>12.045040099904412</v>
-      </c>
-      <c r="P12">
-        <v>21.806349206349207</v>
-      </c>
-      <c r="Q12">
-        <v>33.015746704613548</v>
+        <v>5.0782117957858475</v>
       </c>
       <c r="R12">
-        <v>76441.40625</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>49.062450640451885</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="U12">
-        <v>53.629116187217626</v>
+        <v>61.300074890413946</v>
       </c>
       <c r="V12">
-        <v>5.3033088235294112</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>20170327</v>
+        <v>20160421</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Y12" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Z12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>4384.0590396237858</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2900.4394865223949</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>491.42253544871221</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>12.994616791916506</v>
+        <v>-30.256437163529274</v>
       </c>
       <c r="L13">
-        <v>1.0174522967562898</v>
+        <v>-1.9619657198505973</v>
       </c>
       <c r="M13">
-        <v>-52.125016348901795</v>
+        <v>-35.537677791974382</v>
       </c>
       <c r="N13">
-        <v>-5.6508649307261143</v>
+        <v>-2.4019383679760038</v>
       </c>
       <c r="O13">
-        <v>5.4140935880430021</v>
-      </c>
-      <c r="P13">
-        <v>22.875698418136952</v>
-      </c>
-      <c r="Q13">
-        <v>34.989682729007626</v>
+        <v>10.640337468563047</v>
       </c>
       <c r="R13">
-        <v>75755.44469093626</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>52.472065208171074</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>66.999998092651197</v>
+        <v>76</v>
       </c>
       <c r="U13">
-        <v>53.212581390587552</v>
+        <v>60.680656321342532</v>
       </c>
       <c r="V13">
-        <v>1.7786583533653846</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>20120216</v>
+        <v>20160329</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1089.5804660997303</v>
+        <v>3408.2334586106817</v>
       </c>
       <c r="C14">
-        <v>1217.1854300410691</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>110.6173062030183</v>
+        <v>190.4554993813573</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>50.19442890773481</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.6354632932868407</v>
       </c>
       <c r="M14">
-        <v>15.255118703057775</v>
+        <v>-56.309932474020215</v>
       </c>
       <c r="N14">
-        <v>1.4646296415915561</v>
+        <v>-5.7872427976231142</v>
       </c>
       <c r="O14">
-        <v>4.4201844910080723</v>
+        <v>8.8822018485326879</v>
       </c>
       <c r="P14">
-        <v>14.788819034540211</v>
+        <v>21.446287439324195</v>
       </c>
       <c r="Q14">
-        <v>28.550304886243961</v>
+        <v>35.931466141220412</v>
       </c>
       <c r="R14">
-        <v>49167.022236394427</v>
+        <v>79406.045667045444</v>
       </c>
       <c r="S14">
-        <v>49.556218319084799</v>
+        <v>46.886991336187364</v>
       </c>
       <c r="T14">
-        <v>53.333340883254898</v>
+        <v>70</v>
       </c>
       <c r="U14">
-        <v>46.490934103979711</v>
+        <v>51.069081830834939</v>
       </c>
       <c r="V14">
-        <v>1.2063492423012114</v>
+        <v>1.8865894496841256</v>
       </c>
       <c r="W14">
-        <v>20120517</v>
+        <v>20170816</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="Y14" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="Z14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>826.934814453125</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>371.148681640625</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>-30.256437163529274</v>
+        <v>-4.3987053549955322</v>
       </c>
       <c r="L15">
-        <v>-2.2369790634377016</v>
+        <v>-0.30128212139291854</v>
       </c>
       <c r="M15">
-        <v>-61.699244233993632</v>
+        <v>-65.224859431168085</v>
       </c>
       <c r="N15">
-        <v>-7.0890350178829875</v>
+        <v>-8.4249411872766782</v>
       </c>
       <c r="O15">
-        <v>5.6916307349100492</v>
+        <v>6.0773499275226612</v>
+      </c>
+      <c r="P15">
+        <v>24.757077991452991</v>
+      </c>
+      <c r="Q15">
+        <v>35.70557653656639</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>84975.701904296875</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>49.295777091502138</v>
       </c>
       <c r="T15">
-        <v>66.5</v>
+        <v>72</v>
       </c>
       <c r="U15">
-        <v>46.292808256322274</v>
+        <v>52.948384256344475</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>-0.79310478855721389</v>
       </c>
       <c r="W15">
-        <v>20170410</v>
+        <v>20160715</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="Y15" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="Z15" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3511.31005859375</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>73.0838623046875</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>227.87384033203125</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>22.619864948040426</v>
+        <v>-47.290610042638534</v>
       </c>
       <c r="L16">
-        <v>1.7810113805315928</v>
+        <v>-4.2870337063657562</v>
       </c>
       <c r="M16">
-        <v>-46.974934010881981</v>
+        <v>-63.43494882292201</v>
       </c>
       <c r="N16">
-        <v>-4.5714936022239794</v>
+        <v>-7.8792781549650313</v>
       </c>
       <c r="O16">
-        <v>7.5035133654112514</v>
+        <v>8.0407094276333169</v>
+      </c>
+      <c r="P16">
+        <v>21.118112617494369</v>
+      </c>
+      <c r="Q16">
+        <v>32.842298671744381</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>61695.097290039062</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>53.054681679677707</v>
       </c>
       <c r="T16">
-        <v>60.299998283386081</v>
+        <v>66.5</v>
       </c>
       <c r="U16">
-        <v>43.691243402937204</v>
+        <v>48.714926466677106</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2.280598958333333</v>
       </c>
       <c r="W16">
-        <v>20110412</v>
+        <v>20130705</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="Y16" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="Z16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>7464.2229080200195</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>6178.4791946411133</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>659.69467163085938</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F17">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>40.914383220025123</v>
+        <v>26.56505117707799</v>
       </c>
       <c r="L17">
-        <v>4.1492332906859026</v>
+        <v>2.3737847726061374</v>
       </c>
       <c r="M17">
-        <v>-59.743562836470737</v>
+        <v>-63.43494882292201</v>
       </c>
       <c r="N17">
-        <v>-8.1659090146664877</v>
+        <v>-9.4149114257472668</v>
       </c>
       <c r="O17">
-        <v>6.8306530601418274</v>
-      </c>
-      <c r="P17">
-        <v>21.052535752118644</v>
-      </c>
-      <c r="Q17">
-        <v>34.777336652029078</v>
+        <v>8.0618719857693861</v>
       </c>
       <c r="R17">
-        <v>66495.480537414551</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>52.193484037849835</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>73.5</v>
+        <v>66.5</v>
       </c>
       <c r="U17">
-        <v>46.982598705138123</v>
+        <v>43.356569372948378</v>
       </c>
       <c r="V17">
-        <v>-0.673828125</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>20120817</v>
+        <v>20170816</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="Y17" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Z17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2556,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>167</v>
@@ -2574,19 +2549,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>67.380135051959584</v>
+        <v>30.465544919459884</v>
       </c>
       <c r="L18">
-        <v>8.1857986982980151</v>
+        <v>1.7074369359021697</v>
       </c>
       <c r="M18">
-        <v>-63.43494882292201</v>
+        <v>-46.847610265994597</v>
       </c>
       <c r="N18">
-        <v>-6.8356755356566898</v>
+        <v>-3.0940580589171112</v>
       </c>
       <c r="O18">
-        <v>2.5773253300731653</v>
+        <v>7.2944874192965869</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2595,110 +2570,104 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>61.2</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="U18">
-        <v>53.262993381828693</v>
+        <v>47.485234976275557</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>20170529</v>
+        <v>20170608</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="Y18" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="Z18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>4211.1328125</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2822.75390625</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>297.36328125</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>-34.69515353123397</v>
       </c>
       <c r="L19">
-        <v>-4.1247666061423818</v>
+        <v>-4.945966547104157</v>
       </c>
       <c r="M19">
-        <v>-45</v>
+        <v>-43.025065989118033</v>
       </c>
       <c r="N19">
-        <v>-5.9468630539735008</v>
+        <v>-6.6544250460065957</v>
       </c>
       <c r="O19">
-        <v>13.51977238500298</v>
-      </c>
-      <c r="P19">
-        <v>17.548597833014657</v>
-      </c>
-      <c r="Q19">
-        <v>26.460805510860823</v>
+        <v>8.7209865241216562</v>
       </c>
       <c r="R19">
-        <v>31920.99609375</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>53.000063236030911</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="U19">
-        <v>32.224499256699936</v>
+        <v>43.751638795191731</v>
       </c>
       <c r="V19">
-        <v>3.7393162393162392E-2</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>20101019</v>
+        <v>20160820</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="Z19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2710,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>167</v>
@@ -2728,19 +2697,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>-8.1301023541559783</v>
+        <v>8.7461622625552096</v>
       </c>
       <c r="L20">
-        <v>-0.59376472361139565</v>
+        <v>0.48719728483434255</v>
       </c>
       <c r="M20">
-        <v>-49.085616779974877</v>
+        <v>-53.615648184164108</v>
       </c>
       <c r="N20">
-        <v>-4.7848094294927046</v>
+        <v>-4.2898456046524602</v>
       </c>
       <c r="O20">
-        <v>9.411504207636824</v>
+        <v>6.8945007446023538</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2749,110 +2718,104 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>66.5</v>
+        <v>63</v>
       </c>
       <c r="U20">
-        <v>45.692400593798325</v>
+        <v>44.959370074011325</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>20170526</v>
+        <v>20170602</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>4730.810546875</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>3815.478515625</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>476.46484375</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>-6.3401917459099089</v>
+        <v>-39.805571092265197</v>
       </c>
       <c r="L21">
-        <v>-0.56839186467939451</v>
+        <v>-2.4292462646827806</v>
       </c>
       <c r="M21">
-        <v>-56.309932474020215</v>
+        <v>-66.571307191254604</v>
       </c>
       <c r="N21">
-        <v>-7.6281496685807095</v>
+        <v>-6.7004637642937235</v>
       </c>
       <c r="O21">
-        <v>0.50160588058554367</v>
-      </c>
-      <c r="P21">
-        <v>17.120930783817951</v>
-      </c>
-      <c r="Q21">
-        <v>27.454461348684205</v>
+        <v>10.447279191450122</v>
       </c>
       <c r="R21">
-        <v>36498.095703125</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>51.178049364965247</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>56</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="U21">
-        <v>48.919251236619552</v>
+        <v>48.552907947802858</v>
       </c>
       <c r="V21">
-        <v>2.55661231884058</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>20100607</v>
+        <v>20170505</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="Z21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2864,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>167</v>
@@ -2882,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>39.805571092265197</v>
+        <v>14.036243467926477</v>
       </c>
       <c r="L22">
-        <v>2.3757738538327775</v>
+        <v>1.0230301886678357</v>
       </c>
       <c r="M22">
-        <v>-52.594643368591449</v>
+        <v>-45</v>
       </c>
       <c r="N22">
-        <v>-3.7250183738481892</v>
+        <v>-4.0856167799748766</v>
       </c>
       <c r="O22">
-        <v>10.455344904279841</v>
+        <v>11.510684785359203</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2903,196 +2866,202 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>66.600000000000009</v>
+        <v>56</v>
       </c>
       <c r="U22">
-        <v>45.941905185240792</v>
+        <v>47.763750304394499</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>20170531</v>
+        <v>20161108</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="Z22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2806.0625</v>
+        <v>5028.9775729000557</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4456.5485883414103</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>245.20674350776181</v>
       </c>
       <c r="E23">
         <v>13</v>
       </c>
       <c r="F23">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>-16.699244233993621</v>
+        <v>-4.7636416907261774</v>
       </c>
       <c r="L23">
-        <v>-1.130690951237971</v>
+        <v>-0.41198448506072793</v>
       </c>
       <c r="M23">
-        <v>-53.74616226255521</v>
+        <v>-47.12109639666145</v>
       </c>
       <c r="N23">
-        <v>-5.1264477537176427</v>
+        <v>-5.3089530101863387</v>
       </c>
       <c r="O23">
-        <v>7.2030635783039543</v>
+        <v>3.9294759523429548</v>
       </c>
       <c r="P23">
-        <v>20.496886843255002</v>
+        <v>21.954132427307208</v>
       </c>
       <c r="Q23">
-        <v>30.35806636155607</v>
+        <v>32.445034907284032</v>
       </c>
       <c r="R23">
-        <v>51599.487499999996</v>
+        <v>64009.876794106654</v>
       </c>
       <c r="S23">
-        <v>50.69901594050372</v>
+        <v>52.899863282741002</v>
       </c>
       <c r="T23">
-        <v>60.8</v>
+        <v>66.999998092651197</v>
       </c>
       <c r="U23">
-        <v>44.09055565197702</v>
+        <v>54.008251809287302</v>
       </c>
       <c r="V23">
-        <v>2.2114285714285713</v>
+        <v>1.9308725421348316</v>
       </c>
       <c r="W23">
-        <v>20130806</v>
+        <v>20101026</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="Z23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3450.390625</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>362.890625</v>
       </c>
       <c r="E24">
         <v>17</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>-54.462322208025618</v>
+        <v>18.43494882292201</v>
       </c>
       <c r="L24">
-        <v>-6.6169520457117788</v>
+        <v>1.4917404353727173</v>
       </c>
       <c r="M24">
-        <v>-20.556045219583464</v>
+        <v>-49.398705354995542</v>
       </c>
       <c r="N24">
-        <v>-1.7797472208371126</v>
+        <v>-5.207881778939357</v>
       </c>
       <c r="O24">
-        <v>3.0423451479438626</v>
+        <v>12.045040099904412</v>
+      </c>
+      <c r="P24">
+        <v>21.806349206349207</v>
+      </c>
+      <c r="Q24">
+        <v>33.015746704613548</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>76441.40625</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>49.062450640451885</v>
       </c>
       <c r="T24">
-        <v>75.899999999999991</v>
+        <v>68</v>
       </c>
       <c r="U24">
-        <v>57.765273237498853</v>
+        <v>53.629116187217626</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>5.3033088235294112</v>
       </c>
       <c r="W24">
-        <v>20170220</v>
+        <v>20170327</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="Z24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4741.116943359375</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4113.43505859375</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>267.60498046875</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <v>80</v>
@@ -3101,134 +3070,146 @@
         <v>166</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>9.4623222080256166</v>
+        <v>12.094757077012103</v>
       </c>
       <c r="L25">
-        <v>0.53286948478116214</v>
+        <v>0.75721333643461786</v>
       </c>
       <c r="M25">
-        <v>-12.994616791916506</v>
+        <v>-66.370622269343187</v>
       </c>
       <c r="N25">
-        <v>-0.73779977730621726</v>
+        <v>-8.0245298343623706</v>
       </c>
       <c r="O25">
-        <v>5.9384656563712781</v>
+        <v>5.9269303615936622</v>
+      </c>
+      <c r="P25">
+        <v>21.880492378332196</v>
+      </c>
+      <c r="Q25">
+        <v>35.534645151869157</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>72046.483154296875</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>46.109873139034065</v>
       </c>
       <c r="T25">
-        <v>68</v>
+        <v>60.8</v>
       </c>
       <c r="U25">
-        <v>58.499249822718937</v>
+        <v>59.162021787662383</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.3717532467532467</v>
       </c>
       <c r="W25">
-        <v>20170822</v>
+        <v>20161109</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Z25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>6395.8954706050836</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>6723.7696446463415</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>697.7469939106403</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>-37.568592028827496</v>
+        <v>-9.4623222080256166</v>
       </c>
       <c r="L26">
-        <v>-4.0921420692434927</v>
+        <v>-0.52748728622824526</v>
       </c>
       <c r="M26">
-        <v>-36.25383773744479</v>
+        <v>-58.671307132195828</v>
       </c>
       <c r="N26">
-        <v>-3.9017796542696503</v>
+        <v>-5.1854601131604952</v>
       </c>
       <c r="O26">
-        <v>6.7012250483956848</v>
+        <v>11.084948541450913</v>
+      </c>
+      <c r="P26">
+        <v>25.857351718740315</v>
+      </c>
+      <c r="Q26">
+        <v>38.226259498035198</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>97312.143698383283</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>53.601023206428444</v>
       </c>
       <c r="T26">
-        <v>72</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="U26">
-        <v>56.03196482002857</v>
+        <v>61.860190839318527</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.5923195038492044</v>
       </c>
       <c r="W26">
-        <v>20160617</v>
+        <v>20170124</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Z26" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3240,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>167</v>
@@ -3258,19 +3239,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>-4.7636416907261774</v>
+        <v>10.304846468766033</v>
       </c>
       <c r="L27">
-        <v>-0.27220129649647201</v>
+        <v>0.96448425952940164</v>
       </c>
       <c r="M27">
-        <v>-34.69515353123397</v>
+        <v>-54.462322208025618</v>
       </c>
       <c r="N27">
-        <v>-2.2602084915249425</v>
+        <v>-7.386042827840936</v>
       </c>
       <c r="O27">
-        <v>5.4272289208667104</v>
+        <v>7.07298687429072</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3279,48 +3260,48 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>70.3</v>
+        <v>52.5</v>
       </c>
       <c r="U27">
-        <v>51.84786475336616</v>
+        <v>40.268449872051619</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>20170705</v>
+        <v>20170308</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Y27" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Z27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>3408.2334586106817</v>
+        <v>3692.1594898720273</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>190.4554993813573</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>70</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3329,72 +3310,72 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>50.19442890773481</v>
+        <v>7.594643368591445</v>
       </c>
       <c r="L28">
-        <v>4.6354632932868407</v>
+        <v>0.63334590551239145</v>
       </c>
       <c r="M28">
-        <v>-56.309932474020215</v>
+        <v>-30.465544919459884</v>
       </c>
       <c r="N28">
-        <v>-5.7872427976231142</v>
+        <v>-2.7920747101488019</v>
       </c>
       <c r="O28">
-        <v>8.8822018485326879</v>
+        <v>8.3355145705842233</v>
       </c>
       <c r="P28">
-        <v>21.446287439324195</v>
+        <v>21.905346186025749</v>
       </c>
       <c r="Q28">
-        <v>35.931466141220412</v>
+        <v>31.868512367248648</v>
       </c>
       <c r="R28">
-        <v>79406.045667045444</v>
+        <v>69348.527889710793</v>
       </c>
       <c r="S28">
-        <v>46.886991336187364</v>
+        <v>47.445922186018009</v>
       </c>
       <c r="T28">
         <v>70</v>
       </c>
       <c r="U28">
-        <v>51.069081830834939</v>
+        <v>48.993432877986983</v>
       </c>
       <c r="V28">
-        <v>1.8865894496841256</v>
+        <v>3.5356876607096499</v>
       </c>
       <c r="W28">
-        <v>20170816</v>
+        <v>20170817</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="Z28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>826.934814453125</v>
+        <v>6040.0260925292969</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4664.0693664550781</v>
       </c>
       <c r="D29">
-        <v>371.148681640625</v>
+        <v>478.88946533203125</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <v>75</v>
@@ -3406,81 +3387,81 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>-4.3987053549955322</v>
+        <v>50.906141113770509</v>
       </c>
       <c r="L29">
-        <v>-0.30128212139291854</v>
+        <v>5.4923245571274384</v>
       </c>
       <c r="M29">
-        <v>-65.224859431168085</v>
+        <v>-50.19442890773481</v>
       </c>
       <c r="N29">
-        <v>-8.4249411872766782</v>
+        <v>-5.3558250428551908</v>
       </c>
       <c r="O29">
-        <v>6.0773499275226612</v>
+        <v>11.185456722849992</v>
       </c>
       <c r="P29">
-        <v>24.757077991452991</v>
+        <v>21.504275044454555</v>
       </c>
       <c r="Q29">
-        <v>35.70557653656639</v>
+        <v>35.716987508039878</v>
       </c>
       <c r="R29">
-        <v>84975.701904296875</v>
+        <v>75911.569213867188</v>
       </c>
       <c r="S29">
-        <v>49.295777091502138</v>
+        <v>44.776621640603416</v>
       </c>
       <c r="T29">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="U29">
-        <v>52.948384256344475</v>
+        <v>52.465005876505444</v>
       </c>
       <c r="V29">
-        <v>-0.79310478855721389</v>
+        <v>2.7749327153110048</v>
       </c>
       <c r="W29">
-        <v>20160715</v>
+        <v>20160907</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Z29" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>3511.31005859375</v>
+        <v>5901.5952192903396</v>
       </c>
       <c r="C30">
-        <v>73.0838623046875</v>
+        <v>4103.9117771098254</v>
       </c>
       <c r="D30">
-        <v>227.87384033203125</v>
+        <v>423.50298954304037</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3492,214 +3473,226 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>-47.290610042638534</v>
+        <v>18.43494882292201</v>
       </c>
       <c r="L30">
-        <v>-4.2870337063657562</v>
+        <v>0.97218786170663229</v>
       </c>
       <c r="M30">
         <v>-63.43494882292201</v>
       </c>
       <c r="N30">
-        <v>-7.8792781549650313</v>
+        <v>-5.8136527888180938</v>
       </c>
       <c r="O30">
-        <v>8.0407094276333169</v>
+        <v>11.06690762795813</v>
       </c>
       <c r="P30">
-        <v>21.118112617494369</v>
+        <v>21.616768708934629</v>
       </c>
       <c r="Q30">
-        <v>32.842298671744381</v>
+        <v>33.493606717500903</v>
       </c>
       <c r="R30">
-        <v>61695.097290039063</v>
+        <v>74078.750429776905</v>
       </c>
       <c r="S30">
-        <v>53.054681679677707</v>
+        <v>52.75102634366462</v>
       </c>
       <c r="T30">
-        <v>66.5</v>
+        <v>76</v>
       </c>
       <c r="U30">
-        <v>48.714926466677106</v>
+        <v>50.300190171891984</v>
       </c>
       <c r="V30">
-        <v>2.280598958333333</v>
+        <v>2.3980655641509689</v>
       </c>
       <c r="W30">
-        <v>20130705</v>
+        <v>20170513</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="Y30" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Z30" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3573.28125</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2378.25</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>241.0625</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>26.56505117707799</v>
+        <v>15.255118703057775</v>
       </c>
       <c r="L31">
-        <v>2.3737847726061374</v>
+        <v>1.1160103914072725</v>
       </c>
       <c r="M31">
-        <v>-63.43494882292201</v>
+        <v>-49.763641690726182</v>
       </c>
       <c r="N31">
-        <v>-9.4149114257472668</v>
+        <v>-4.8252169271098113</v>
       </c>
       <c r="O31">
-        <v>8.0618719857693861</v>
+        <v>3.135734352142677</v>
+      </c>
+      <c r="P31">
+        <v>17.435929648241206</v>
+      </c>
+      <c r="Q31">
+        <v>26.719168356997969</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>39043.8125</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>48.955667645856821</v>
       </c>
       <c r="T31">
-        <v>66.5</v>
+        <v>56</v>
       </c>
       <c r="U31">
-        <v>43.356569372948378</v>
+        <v>42.649342242342463</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="W31">
-        <v>20170816</v>
+        <v>20130315</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="Y31" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Z31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>681.03879358314032</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>158.8416889484713</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>30.465544919459884</v>
+        <v>5.1944289077348058</v>
       </c>
       <c r="L32">
-        <v>1.7074369359021697</v>
+        <v>0.27989689900560505</v>
       </c>
       <c r="M32">
-        <v>-46.847610265994597</v>
+        <v>-56.976132444203358</v>
       </c>
       <c r="N32">
-        <v>-3.0940580589171112</v>
+        <v>-4.7260071128779053</v>
       </c>
       <c r="O32">
-        <v>7.2944874192965869</v>
+        <v>6.8018434578703051</v>
+      </c>
+      <c r="P32">
+        <v>22.110527762906734</v>
+      </c>
+      <c r="Q32">
+        <v>29.647007685675884</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>55991.762717223733</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>52.225763158291571</v>
       </c>
       <c r="T32">
-        <v>62.900000000000006</v>
+        <v>64.8</v>
       </c>
       <c r="U32">
-        <v>47.485234976275557</v>
+        <v>46.188708914806163</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>2.3522688923538353</v>
       </c>
       <c r="W32">
-        <v>20170608</v>
+        <v>20170321</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="Y32" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="Z32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4047.0288044595382</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>320.19874210470141</v>
       </c>
       <c r="E33">
         <v>15</v>
@@ -3711,608 +3704,632 @@
         <v>167</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>-34.69515353123397</v>
+        <v>-32.471192290848492</v>
       </c>
       <c r="L33">
-        <v>-4.945966547104157</v>
+        <v>-3.2555153420705554</v>
       </c>
       <c r="M33">
-        <v>-43.025065989118033</v>
+        <v>-37.568592028827496</v>
       </c>
       <c r="N33">
-        <v>-6.6544250460065957</v>
+        <v>-3.9332882875645701</v>
       </c>
       <c r="O33">
-        <v>8.7209865241216562</v>
+        <v>9.7072723623564059</v>
+      </c>
+      <c r="P33">
+        <v>19.213537361135174</v>
+      </c>
+      <c r="Q33">
+        <v>30.182935906747932</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>52961.766562256205</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>44.506711356837442</v>
       </c>
       <c r="T33">
-        <v>60</v>
+        <v>61.2</v>
       </c>
       <c r="U33">
-        <v>43.751638795191731</v>
+        <v>46.069610912626182</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>4.5219984662452903</v>
       </c>
       <c r="W33">
-        <v>20160820</v>
+        <v>20160628</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="Y33" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="Z33" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4192.8614966013747</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3713.1645299700667</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>392.81307726696411</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F34">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>8.7461622625552096</v>
+        <v>-14.036243467926477</v>
       </c>
       <c r="L34">
-        <v>0.48719728483434255</v>
+        <v>-1.2851890785853615</v>
       </c>
       <c r="M34">
-        <v>-53.615648184164108</v>
+        <v>-40.236358309273818</v>
       </c>
       <c r="N34">
-        <v>-4.2898456046524602</v>
+        <v>-4.3422677729815931</v>
       </c>
       <c r="O34">
-        <v>6.8945007446023538</v>
+        <v>1.6250527649874726</v>
+      </c>
+      <c r="P34">
+        <v>20.387191978199674</v>
+      </c>
+      <c r="Q34">
+        <v>31.936654531342406</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>58513.648100590581</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>50.859061449661759</v>
       </c>
       <c r="T34">
-        <v>63</v>
+        <v>66.600000858306785</v>
       </c>
       <c r="U34">
-        <v>44.959370074011325</v>
+        <v>50.099303671195813</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>2.2475961538461537</v>
       </c>
       <c r="W34">
-        <v>20170602</v>
+        <v>20110217</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="Y34" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="Z34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4384.0590396237858</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2900.4394865223949</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>491.42253544871221</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>-39.805571092265197</v>
+        <v>12.994616791916506</v>
       </c>
       <c r="L35">
-        <v>-2.4292462646827806</v>
+        <v>1.0174522967562898</v>
       </c>
       <c r="M35">
-        <v>-66.571307191254604</v>
+        <v>-52.125016348901795</v>
       </c>
       <c r="N35">
-        <v>-6.7004637642937235</v>
+        <v>-5.6508649307261143</v>
       </c>
       <c r="O35">
-        <v>10.447279191450122</v>
+        <v>5.4140935880430021</v>
+      </c>
+      <c r="P35">
+        <v>22.875698418136952</v>
+      </c>
+      <c r="Q35">
+        <v>34.989682729007626</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>75755.44469093626</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>52.472065208171074</v>
       </c>
       <c r="T35">
-        <v>64.599999999999994</v>
+        <v>66.999998092651197</v>
       </c>
       <c r="U35">
-        <v>48.552907947802858</v>
+        <v>53.212581390587552</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1.7786583533653846</v>
       </c>
       <c r="W35">
-        <v>20170505</v>
+        <v>20120216</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="Y35" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="Z35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>6806.724298066184</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4740.5216890903985</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>452.52093106020737</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>14.036243467926477</v>
+        <v>-8.7461622625552096</v>
       </c>
       <c r="L36">
-        <v>1.0230301886678357</v>
+        <v>-0.74326436749332192</v>
       </c>
       <c r="M36">
-        <v>-45</v>
+        <v>-31.607502246248906</v>
       </c>
       <c r="N36">
-        <v>-4.0856167799748766</v>
+        <v>-2.9705597542422804</v>
       </c>
       <c r="O36">
-        <v>11.510684785359203</v>
+        <v>12.039603445588853</v>
+      </c>
+      <c r="P36">
+        <v>17.565551175359328</v>
+      </c>
+      <c r="Q36">
+        <v>27.097880073495741</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>48232.626863091784</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>40.171202312170671</v>
       </c>
       <c r="T36">
-        <v>56</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="U36">
-        <v>47.763750304394499</v>
+        <v>37.014028345858421</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>3.5535714784088879</v>
       </c>
       <c r="W36">
-        <v>20161108</v>
+        <v>20130416</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="Y36" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Z36" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>4741.116943359375</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>4113.43505859375</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>267.60498046875</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>12.094757077012103</v>
+        <v>-63.43494882292201</v>
       </c>
       <c r="L37">
-        <v>0.75721333643461786</v>
+        <v>-6.4830738242562944</v>
       </c>
       <c r="M37">
-        <v>-66.370622269343187</v>
+        <v>30.963756532073521</v>
       </c>
       <c r="N37">
-        <v>-8.0245298343623706</v>
+        <v>1.9525090892698691</v>
       </c>
       <c r="O37">
-        <v>5.9269303615936622</v>
-      </c>
-      <c r="P37">
-        <v>21.880492378332196</v>
-      </c>
-      <c r="Q37">
-        <v>35.534645151869157</v>
+        <v>17.079706449296197</v>
       </c>
       <c r="R37">
-        <v>72046.483154296875</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>46.109873139034065</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>60.8</v>
+        <v>70</v>
       </c>
       <c r="U37">
-        <v>59.162021787662383</v>
+        <v>48.051921565643966</v>
       </c>
       <c r="V37">
-        <v>1.3717532467532467</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>20161109</v>
+        <v>20170825</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="Y37" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Z37" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>6395.8954706050836</v>
+        <v>650.8521728515625</v>
       </c>
       <c r="C38">
-        <v>6723.7696446463415</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>697.7469939106403</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>75</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>-9.4623222080256166</v>
+        <v>45</v>
       </c>
       <c r="L38">
-        <v>-0.52748728622824526</v>
+        <v>3.3214757633460423</v>
       </c>
       <c r="M38">
-        <v>-58.671307132195828</v>
+        <v>-42.87890360333855</v>
       </c>
       <c r="N38">
-        <v>-5.1854601131604952</v>
+        <v>-3.0847032440930575</v>
       </c>
       <c r="O38">
-        <v>11.084948541450913</v>
+        <v>1.7502110024842636</v>
       </c>
       <c r="P38">
-        <v>25.857351718740315</v>
+        <v>16.421875</v>
       </c>
       <c r="Q38">
-        <v>38.226259498035198</v>
+        <v>25.976203683159525</v>
       </c>
       <c r="R38">
-        <v>97312.143698383283</v>
+        <v>40688.874877929688</v>
       </c>
       <c r="S38">
-        <v>53.601023206428444</v>
+        <v>45.782339674637171</v>
       </c>
       <c r="T38">
-        <v>68.400000000000006</v>
+        <v>59.5</v>
       </c>
       <c r="U38">
-        <v>61.860190839318527</v>
+        <v>44.026960419840613</v>
       </c>
       <c r="V38">
-        <v>1.5923195038492044</v>
+        <v>6.8373161764705879</v>
       </c>
       <c r="W38">
-        <v>20170124</v>
+        <v>20151008</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="Y38" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Z38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>6779.9597768336216</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>7403.6391678610316</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>631.49040459519108</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>10.304846468766033</v>
+        <v>-14.036243467926477</v>
       </c>
       <c r="L39">
-        <v>0.96448425952940164</v>
+        <v>-1.3094325525897252</v>
       </c>
       <c r="M39">
-        <v>-54.462322208025618</v>
+        <v>-52.594643368591449</v>
       </c>
       <c r="N39">
-        <v>-7.386042827840936</v>
+        <v>-6.8181651724896888</v>
       </c>
       <c r="O39">
-        <v>7.07298687429072</v>
+        <v>13.695744617185923</v>
+      </c>
+      <c r="P39">
+        <v>20.657047678009825</v>
+      </c>
+      <c r="Q39">
+        <v>33.249961725061297</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>61902.58294826057</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>50.474613389119291</v>
       </c>
       <c r="T39">
-        <v>52.5</v>
+        <v>59.4</v>
       </c>
       <c r="U39">
-        <v>40.268449872051619</v>
+        <v>51.561589545983075</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>4.7403406407459379</v>
       </c>
       <c r="W39">
-        <v>20170308</v>
+        <v>20170522</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y39" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z39" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>3692.1594898720273</v>
+        <v>11207.328273978485</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6887.9675280447145</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>443.9813073718509</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>7.594643368591445</v>
+        <v>8.1301023541559783</v>
       </c>
       <c r="L40">
-        <v>0.63334590551239145</v>
+        <v>0.41668458503634231</v>
       </c>
       <c r="M40">
-        <v>-30.465544919459884</v>
+        <v>-53.13010235415598</v>
       </c>
       <c r="N40">
-        <v>-2.7920747101488019</v>
+        <v>-3.8831681969046166</v>
       </c>
       <c r="O40">
-        <v>8.3355145705842233</v>
+        <v>13.425191952641399</v>
       </c>
       <c r="P40">
-        <v>21.905346186025749</v>
+        <v>21.083608910241793</v>
       </c>
       <c r="Q40">
-        <v>31.868512367248648</v>
+        <v>34.239671928434376</v>
       </c>
       <c r="R40">
-        <v>69348.527889710793</v>
+        <v>68278.124694225844</v>
       </c>
       <c r="S40">
-        <v>47.445922186018009</v>
+        <v>52.108623666813912</v>
       </c>
       <c r="T40">
-        <v>70</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="U40">
-        <v>48.993432877986983</v>
+        <v>51.297619106239495</v>
       </c>
       <c r="V40">
-        <v>3.5356876607096499</v>
+        <v>4.3432948465889512</v>
       </c>
       <c r="W40">
-        <v>20170817</v>
+        <v>20160719</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="Y40" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Z40" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>6040.0260925292969</v>
+        <v>7325.8230196352333</v>
       </c>
       <c r="C41">
-        <v>4664.0693664550781</v>
+        <v>3459.2209455508882</v>
       </c>
       <c r="D41">
-        <v>478.88946533203125</v>
+        <v>389.39693284004125</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41">
         <v>75</v>
@@ -4330,72 +4347,72 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>50.906141113770509</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>5.4923245571274384</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-50.19442890773481</v>
+        <v>-29.357753542791272</v>
       </c>
       <c r="N41">
-        <v>-5.3558250428551908</v>
+        <v>-2.9476411910163853</v>
       </c>
       <c r="O41">
-        <v>11.185456722849992</v>
+        <v>7.5508442594591969</v>
       </c>
       <c r="P41">
-        <v>21.504275044454555</v>
+        <v>24.615875729634602</v>
       </c>
       <c r="Q41">
-        <v>35.716987508039878</v>
+        <v>35.283116846991909</v>
       </c>
       <c r="R41">
-        <v>75911.569213867188</v>
+        <v>79367.383281250412</v>
       </c>
       <c r="S41">
-        <v>44.776621640603416</v>
+        <v>41.367069932734651</v>
       </c>
       <c r="T41">
-        <v>77</v>
+        <v>64.8</v>
       </c>
       <c r="U41">
-        <v>52.465005876505444</v>
+        <v>63.127386576273636</v>
       </c>
       <c r="V41">
-        <v>2.7749327153110048</v>
+        <v>4.6377496363185591</v>
       </c>
       <c r="W41">
-        <v>20160907</v>
+        <v>20160603</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="Y41" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Z41" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>5901.5952192903396</v>
+        <v>14594.812946731608</v>
       </c>
       <c r="C42">
-        <v>4103.9117771098254</v>
+        <v>9142.2836388421765</v>
       </c>
       <c r="D42">
-        <v>423.50298954304037</v>
+        <v>517.45494320168063</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>166</v>
@@ -4410,72 +4427,72 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>18.43494882292201</v>
+        <v>-26.56505117707799</v>
       </c>
       <c r="L42">
-        <v>0.97218786170663229</v>
+        <v>-1.9268375947759189</v>
       </c>
       <c r="M42">
-        <v>-63.43494882292201</v>
+        <v>-36.86989764584402</v>
       </c>
       <c r="N42">
-        <v>-5.8136527888180938</v>
+        <v>-2.888895875681234</v>
       </c>
       <c r="O42">
-        <v>11.06690762795813</v>
+        <v>11.392583232894481</v>
       </c>
       <c r="P42">
-        <v>21.616768708934629</v>
+        <v>22.192146370724753</v>
       </c>
       <c r="Q42">
-        <v>33.493606717500903</v>
+        <v>34.289919537687815</v>
       </c>
       <c r="R42">
-        <v>74078.750429776905</v>
+        <v>73414.758477892217</v>
       </c>
       <c r="S42">
-        <v>52.75102634366462</v>
+        <v>52.321853162638597</v>
       </c>
       <c r="T42">
-        <v>76</v>
+        <v>60.8</v>
       </c>
       <c r="U42">
-        <v>50.300190171891984</v>
+        <v>45.224637746832812</v>
       </c>
       <c r="V42">
-        <v>2.3980655641509689</v>
+        <v>7.1187757827433158</v>
       </c>
       <c r="W42">
-        <v>20170513</v>
+        <v>20150821</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Y42" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Z42" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>3573.28125</v>
+        <v>6010.0793838500977</v>
       </c>
       <c r="C43">
-        <v>2378.25</v>
+        <v>4278.350830078125</v>
       </c>
       <c r="D43">
-        <v>241.0625</v>
+        <v>258.82244110107422</v>
       </c>
       <c r="E43">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>167</v>
@@ -4490,235 +4507,235 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>15.255118703057775</v>
+        <v>-5.1944289077348058</v>
       </c>
       <c r="L43">
-        <v>1.1160103914072725</v>
+        <v>-0.41242218659425417</v>
       </c>
       <c r="M43">
-        <v>-49.763641690726182</v>
+        <v>-56.309932474020215</v>
       </c>
       <c r="N43">
-        <v>-4.8252169271098113</v>
+        <v>-6.7733529330658593</v>
       </c>
       <c r="O43">
-        <v>3.135734352142677</v>
+        <v>6.7927217195817633</v>
       </c>
       <c r="P43">
-        <v>17.435929648241206</v>
+        <v>18.861433732131758</v>
       </c>
       <c r="Q43">
-        <v>26.719168356997969</v>
+        <v>31.425076798974541</v>
       </c>
       <c r="R43">
-        <v>39043.8125</v>
+        <v>41311.872482299805</v>
       </c>
       <c r="S43">
-        <v>48.955667645856821</v>
+        <v>47.988224834826745</v>
       </c>
       <c r="T43">
-        <v>56</v>
+        <v>51.800000000000004</v>
       </c>
       <c r="U43">
-        <v>42.649342242342463</v>
+        <v>41.419570063472349</v>
       </c>
       <c r="V43">
-        <v>3.18</v>
+        <v>0.5662751677852349</v>
       </c>
       <c r="W43">
-        <v>20130315</v>
+        <v>20130311</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="Y43" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Z43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>681.03879358314032</v>
+        <v>8731.5118710647312</v>
       </c>
       <c r="C44">
-        <v>158.8416889484713</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>435.8835992028977</v>
       </c>
       <c r="E44">
         <v>15</v>
       </c>
       <c r="F44">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>5.1944289077348058</v>
+        <v>-66.037511025421821</v>
       </c>
       <c r="L44">
-        <v>0.27989689900560505</v>
+        <v>-6.1271663431793284</v>
       </c>
       <c r="M44">
-        <v>-56.976132444203358</v>
+        <v>-66.801409486351815</v>
       </c>
       <c r="N44">
-        <v>-4.7260071128779053</v>
+        <v>-6.3522761105030066</v>
       </c>
       <c r="O44">
-        <v>6.8018434578703051</v>
+        <v>14.628779529778768</v>
       </c>
       <c r="P44">
-        <v>22.110527762906734</v>
+        <v>22.327732718476074</v>
       </c>
       <c r="Q44">
-        <v>29.647007685675884</v>
+        <v>35.850763060885519</v>
       </c>
       <c r="R44">
-        <v>55991.762717223733</v>
+        <v>76619.945397852673</v>
       </c>
       <c r="S44">
-        <v>52.225763158291571</v>
+        <v>51.756032132007711</v>
       </c>
       <c r="T44">
-        <v>64.8</v>
+        <v>68</v>
       </c>
       <c r="U44">
-        <v>46.188708914806163</v>
+        <v>49.469667442812323</v>
       </c>
       <c r="V44">
-        <v>2.3522688923538353</v>
+        <v>3.8212149556128696</v>
       </c>
       <c r="W44">
-        <v>20170321</v>
+        <v>20170825</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Y44" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Z44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>4047.0288044595382</v>
+        <v>8590.4466304480811</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>7533.312285542469</v>
       </c>
       <c r="D45">
-        <v>320.19874210470141</v>
+        <v>362.21873968839554</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>-32.471192290848492</v>
+        <v>-39.805571092265197</v>
       </c>
       <c r="L45">
-        <v>-3.2555153420705554</v>
+        <v>-3.5585876035999666</v>
       </c>
       <c r="M45">
-        <v>-37.568592028827496</v>
+        <v>-12.994616791916506</v>
       </c>
       <c r="N45">
-        <v>-3.9332882875645701</v>
+        <v>-0.98662659874818059</v>
       </c>
       <c r="O45">
-        <v>9.7072723623564059</v>
+        <v>3.4334511037174877</v>
       </c>
       <c r="P45">
-        <v>19.213537361135174</v>
+        <v>20.144296125987452</v>
       </c>
       <c r="Q45">
-        <v>30.182935906747932</v>
+        <v>29.824144745808908</v>
       </c>
       <c r="R45">
-        <v>52961.766562256205</v>
+        <v>58732.826453000162</v>
       </c>
       <c r="S45">
-        <v>44.506711356837442</v>
+        <v>48.892014557014981</v>
       </c>
       <c r="T45">
-        <v>61.2</v>
+        <v>66.999998092651197</v>
       </c>
       <c r="U45">
-        <v>46.069610912626182</v>
+        <v>52.802891617661139</v>
       </c>
       <c r="V45">
-        <v>4.5219984662452903</v>
+        <v>5.7085492227979273</v>
       </c>
       <c r="W45">
-        <v>20160628</v>
+        <v>20100825</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="Y45" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="Z45" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>6806.724298066184</v>
+        <v>1089.5804660997303</v>
       </c>
       <c r="C46">
-        <v>4740.5216890903985</v>
+        <v>1217.1854300410691</v>
       </c>
       <c r="D46">
-        <v>452.52093106020737</v>
+        <v>110.6173062030183</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46">
         <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4730,146 +4747,152 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>-8.7461622625552096</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>-0.74326436749332192</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>-31.607502246248906</v>
+        <v>15.255118703057775</v>
       </c>
       <c r="N46">
-        <v>-2.9705597542422804</v>
+        <v>1.4646296415915561</v>
       </c>
       <c r="O46">
-        <v>12.039603445588853</v>
+        <v>4.4201844910080723</v>
       </c>
       <c r="P46">
-        <v>17.565551175359328</v>
+        <v>14.788819034540211</v>
       </c>
       <c r="Q46">
-        <v>27.097880073495741</v>
+        <v>28.550304886243961</v>
       </c>
       <c r="R46">
-        <v>48232.626863091784</v>
+        <v>49167.022236394427</v>
       </c>
       <c r="S46">
-        <v>40.171202312170671</v>
+        <v>49.556218319084799</v>
       </c>
       <c r="T46">
-        <v>68.400000000000006</v>
+        <v>53.333340883254898</v>
       </c>
       <c r="U46">
-        <v>37.014028345858421</v>
+        <v>46.490934103979711</v>
       </c>
       <c r="V46">
-        <v>3.5535714784088879</v>
+        <v>1.2063492423012114</v>
       </c>
       <c r="W46">
-        <v>20130416</v>
+        <v>20120517</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y46" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="Z46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6297.64697265625</v>
+      </c>
+      <c r="C47">
+        <v>3561.753173828125</v>
+      </c>
+      <c r="D47">
+        <v>362.486572265625</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>60</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>5.1944289077348058</v>
+      </c>
+      <c r="L47">
+        <v>0.31536776061123473</v>
+      </c>
+      <c r="M47">
+        <v>-66.801409486351815</v>
+      </c>
+      <c r="N47">
+        <v>-8.0413041526911098</v>
+      </c>
+      <c r="O47">
+        <v>13.255062220218193</v>
+      </c>
+      <c r="P47">
+        <v>18.049671861201059</v>
+      </c>
+      <c r="Q47">
+        <v>29.923218126445924</v>
+      </c>
+      <c r="R47">
+        <v>40972.9482421875</v>
+      </c>
+      <c r="S47">
+        <v>44.562732209202629</v>
+      </c>
+      <c r="T47">
+        <v>52</v>
+      </c>
+      <c r="U47">
+        <v>42.791340573753345</v>
+      </c>
+      <c r="V47">
+        <v>3.2675017458100561</v>
+      </c>
+      <c r="W47">
+        <v>20140814</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z47" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>16</v>
-      </c>
-      <c r="F47">
-        <v>65</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>-63.43494882292201</v>
-      </c>
-      <c r="L47">
-        <v>-6.4830738242562944</v>
-      </c>
-      <c r="M47">
-        <v>30.963756532073521</v>
-      </c>
-      <c r="N47">
-        <v>1.9525090892698691</v>
-      </c>
-      <c r="O47">
-        <v>17.079706449296197</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>70</v>
-      </c>
-      <c r="U47">
-        <v>48.051921565643966</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>20170825</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>650.8521728515625</v>
+        <v>5327.2265625</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>820.546875</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>278.0859375</v>
       </c>
       <c r="E48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>167</v>
@@ -4878,75 +4901,75 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>45</v>
+        <v>28.610459665965216</v>
       </c>
       <c r="L48">
-        <v>3.3214757633460423</v>
+        <v>2.7108437632427358</v>
       </c>
       <c r="M48">
-        <v>-42.87890360333855</v>
+        <v>-45</v>
       </c>
       <c r="N48">
-        <v>-3.0847032440930575</v>
+        <v>-4.9611558046634494</v>
       </c>
       <c r="O48">
-        <v>1.7502110024842636</v>
+        <v>13.834097630057428</v>
       </c>
       <c r="P48">
-        <v>16.421875</v>
+        <v>22.452531645569618</v>
       </c>
       <c r="Q48">
-        <v>25.976203683159525</v>
+        <v>33.194458709942481</v>
       </c>
       <c r="R48">
-        <v>40688.874877929688</v>
+        <v>58213.828125</v>
       </c>
       <c r="S48">
-        <v>45.782339674637171</v>
+        <v>51.700710008180394</v>
       </c>
       <c r="T48">
-        <v>59.5</v>
+        <v>54</v>
       </c>
       <c r="U48">
-        <v>44.026960419840613</v>
+        <v>48.363798598895009</v>
       </c>
       <c r="V48">
-        <v>6.8373161764705879</v>
+        <v>3.3112980769230771</v>
       </c>
       <c r="W48">
-        <v>20151008</v>
+        <v>20170411</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y48" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Z48" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>6779.9597768336216</v>
+        <v>7990.25390625</v>
       </c>
       <c r="C49">
-        <v>7403.6391678610316</v>
+        <v>5493.662109375</v>
       </c>
       <c r="D49">
-        <v>631.49040459519108</v>
+        <v>424.74609375</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49">
         <v>70</v>
@@ -4964,75 +4987,75 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>-14.036243467926477</v>
+        <v>-30.963756532073521</v>
       </c>
       <c r="L49">
-        <v>-1.3094325525897252</v>
+        <v>-3.2519456003638787</v>
       </c>
       <c r="M49">
-        <v>-52.594643368591449</v>
+        <v>-50.19442890773481</v>
       </c>
       <c r="N49">
-        <v>-6.8181651724896888</v>
+        <v>-6.4830736928972374</v>
       </c>
       <c r="O49">
-        <v>13.695744617185923</v>
+        <v>10.21825537473083</v>
       </c>
       <c r="P49">
-        <v>20.657047678009825</v>
+        <v>25.18006726292716</v>
       </c>
       <c r="Q49">
-        <v>33.249961725061297</v>
+        <v>37.074784984769749</v>
       </c>
       <c r="R49">
-        <v>61902.58294826057</v>
+        <v>87503.173828125</v>
       </c>
       <c r="S49">
-        <v>50.474613389119291</v>
+        <v>49.6604561757105</v>
       </c>
       <c r="T49">
-        <v>59.4</v>
+        <v>69.3</v>
       </c>
       <c r="U49">
-        <v>51.561589545983075</v>
+        <v>61.709531345507564</v>
       </c>
       <c r="V49">
-        <v>4.7403406407459379</v>
+        <v>4.1741071428571432</v>
       </c>
       <c r="W49">
-        <v>20170522</v>
+        <v>20170227</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y49" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Z49" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>11207.328273978485</v>
+        <v>6105.8757469108004</v>
       </c>
       <c r="C50">
-        <v>6887.9675280447145</v>
+        <v>3561.5745867120258</v>
       </c>
       <c r="D50">
-        <v>443.9813073718509</v>
+        <v>211.68543578729924</v>
       </c>
       <c r="E50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5044,149 +5067,143 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>8.1301023541559783</v>
+        <v>-54.782407031807281</v>
       </c>
       <c r="L50">
-        <v>0.41668458503634231</v>
+        <v>-3.9669136306800254</v>
       </c>
       <c r="M50">
-        <v>-53.13010235415598</v>
+        <v>-67.520565602896895</v>
       </c>
       <c r="N50">
-        <v>-3.8831681969046166</v>
+        <v>-6.746567267858123</v>
       </c>
       <c r="O50">
-        <v>13.425191952641399</v>
+        <v>6.0344958441157104</v>
       </c>
       <c r="P50">
-        <v>21.083608910241793</v>
+        <v>18.54814350807472</v>
       </c>
       <c r="Q50">
-        <v>34.239671928434376</v>
+        <v>30.445884663877962</v>
       </c>
       <c r="R50">
-        <v>68278.124694225844</v>
+        <v>50380.476309191545</v>
       </c>
       <c r="S50">
-        <v>52.108623666813912</v>
+        <v>46.706159837639191</v>
       </c>
       <c r="T50">
-        <v>64.599999999999994</v>
+        <v>60.8</v>
       </c>
       <c r="U50">
-        <v>51.297619106239495</v>
+        <v>48.284737708347045</v>
       </c>
       <c r="V50">
-        <v>4.3432948465889512</v>
+        <v>3.0381945371626564</v>
       </c>
       <c r="W50">
-        <v>20160719</v>
+        <v>20151026</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Y50" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Z50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>7325.8230196352333</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>3459.2209455508882</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>389.39693284004125</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>14</v>
       </c>
       <c r="F51">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>19.653824058053306</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1.1417449653654084</v>
       </c>
       <c r="M51">
-        <v>-29.357753542791272</v>
+        <v>-52.594643368591449</v>
       </c>
       <c r="N51">
-        <v>-2.9476411910163853</v>
+        <v>-4.1736984594499473</v>
       </c>
       <c r="O51">
-        <v>7.5508442594591969</v>
-      </c>
-      <c r="P51">
-        <v>24.615875729634602</v>
-      </c>
-      <c r="Q51">
-        <v>35.283116846991909</v>
+        <v>5.8596188678971828</v>
       </c>
       <c r="R51">
-        <v>79367.383281250412</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>41.367069932734651</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>64.8</v>
+        <v>56</v>
       </c>
       <c r="U51">
-        <v>63.127386576273636</v>
+        <v>42.712648105943977</v>
       </c>
       <c r="V51">
-        <v>4.6377496363185591</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>20160603</v>
+        <v>20170608</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Y51" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Z51" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>14594.812946731608</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>9142.2836388421765</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>517.45494320168063</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>70</v>
@@ -5195,324 +5212,300 @@
         <v>166</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>-26.56505117707799</v>
+        <v>-19.98310652189998</v>
       </c>
       <c r="L52">
-        <v>-1.9268375947759189</v>
+        <v>-1.9722158658338196</v>
       </c>
       <c r="M52">
-        <v>-36.86989764584402</v>
+        <v>-50.906141113770509</v>
       </c>
       <c r="N52">
-        <v>-2.888895875681234</v>
+        <v>-6.647836800020329</v>
       </c>
       <c r="O52">
-        <v>11.392583232894481</v>
-      </c>
-      <c r="P52">
-        <v>22.192146370724753</v>
-      </c>
-      <c r="Q52">
-        <v>34.289919537687815</v>
+        <v>8.657089618331014</v>
       </c>
       <c r="R52">
-        <v>73414.758477892217</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>52.321853162638597</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>60.8</v>
+        <v>66</v>
       </c>
       <c r="U52">
-        <v>45.224637746832812</v>
+        <v>53.651457325979507</v>
       </c>
       <c r="V52">
-        <v>7.1187757827433158</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>20150821</v>
+        <v>20170516</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y52" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Z52" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>6010.0793838500977</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>4278.350830078125</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>258.82244110107422</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>12.528807709151511</v>
+      </c>
+      <c r="L53">
+        <v>1.1424305016756808</v>
+      </c>
+      <c r="M53">
+        <v>-45</v>
+      </c>
+      <c r="N53">
+        <v>-5.1278832511186883</v>
+      </c>
+      <c r="O53">
+        <v>1.5900073628028082</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>55.500000715255652</v>
+      </c>
+      <c r="U53">
+        <v>41.922341310819064</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>20100430</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>66</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>-5.1944289077348058</v>
-      </c>
-      <c r="L53">
-        <v>-0.41242218659425417</v>
-      </c>
-      <c r="M53">
-        <v>-56.309932474020215</v>
-      </c>
-      <c r="N53">
-        <v>-6.7733529330658593</v>
-      </c>
-      <c r="O53">
-        <v>6.7927217195817633</v>
-      </c>
-      <c r="P53">
-        <v>18.861433732131758</v>
-      </c>
-      <c r="Q53">
-        <v>31.425076798974541</v>
-      </c>
-      <c r="R53">
-        <v>41311.872482299805</v>
-      </c>
-      <c r="S53">
-        <v>47.988224834826745</v>
-      </c>
-      <c r="T53">
-        <v>51.800000000000004</v>
-      </c>
-      <c r="U53">
-        <v>41.419570063472349</v>
-      </c>
-      <c r="V53">
-        <v>0.5662751677852349</v>
-      </c>
-      <c r="W53">
-        <v>20130311</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54">
-        <v>8731.5118710647312</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>435.8835992028977</v>
-      </c>
-      <c r="E54">
-        <v>15</v>
-      </c>
-      <c r="F54">
-        <v>77</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>-66.037511025421821</v>
+        <v>-34.992020198558656</v>
       </c>
       <c r="L54">
-        <v>-6.1271663431793284</v>
+        <v>-3.172871222366159</v>
       </c>
       <c r="M54">
-        <v>-66.801409486351815</v>
+        <v>-15.255118703057775</v>
       </c>
       <c r="N54">
-        <v>-6.3522761105030066</v>
+        <v>-1.2372564285712473</v>
       </c>
       <c r="O54">
-        <v>14.628779529778768</v>
-      </c>
-      <c r="P54">
-        <v>22.327732718476074</v>
-      </c>
-      <c r="Q54">
-        <v>35.850763060885519</v>
+        <v>15.062583353136773</v>
       </c>
       <c r="R54">
-        <v>76619.945397852673</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>51.756032132007711</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>68</v>
+        <v>53.199999999999996</v>
       </c>
       <c r="U54">
-        <v>49.469667442812323</v>
+        <v>42.657418298952329</v>
       </c>
       <c r="V54">
-        <v>3.8212149556128696</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>20170825</v>
+        <v>20170713</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y54" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Z54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>6297.64697265625</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>3561.753173828125</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>362.486572265625</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>5.1944289077348058</v>
+        <v>-49.763641690726182</v>
       </c>
       <c r="L55">
-        <v>0.31536776061123473</v>
+        <v>-3.7731740894809018</v>
       </c>
       <c r="M55">
-        <v>-66.801409486351815</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>-8.0413041526911098</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>13.255062220218193</v>
-      </c>
-      <c r="P55">
-        <v>18.049671861201059</v>
-      </c>
-      <c r="Q55">
-        <v>29.923218126445924</v>
+        <v>2.0454720681752434</v>
       </c>
       <c r="R55">
-        <v>40972.9482421875</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>44.562732209202629</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>52</v>
+        <v>59.5</v>
       </c>
       <c r="U55">
-        <v>42.791340573753345</v>
+        <v>47.526269345515878</v>
       </c>
       <c r="V55">
-        <v>3.2675017458100561</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>20140814</v>
+        <v>20170720</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Y55" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Z55" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>5327.2265625</v>
+        <v>5492.24853515625</v>
       </c>
       <c r="C56">
-        <v>820.546875</v>
+        <v>5408.935546875</v>
       </c>
       <c r="D56">
-        <v>278.0859375</v>
+        <v>300.80795288085938</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5524,155 +5517,149 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>28.610459665965216</v>
+        <v>45</v>
       </c>
       <c r="L56">
-        <v>2.7108437632427358</v>
+        <v>3.1939964638735172</v>
       </c>
       <c r="M56">
-        <v>-45</v>
+        <v>-65.854458039578347</v>
       </c>
       <c r="N56">
-        <v>-4.9611558046634494</v>
+        <v>-7.0959549419996186</v>
       </c>
       <c r="O56">
-        <v>13.834097630057428</v>
+        <v>4.0732567944798177</v>
       </c>
       <c r="P56">
-        <v>22.452531645569618</v>
+        <v>22.307105731432163</v>
       </c>
       <c r="Q56">
-        <v>33.194458709942481</v>
+        <v>33.657841373012467</v>
       </c>
       <c r="R56">
-        <v>58213.828125</v>
+        <v>72213.001251220703</v>
       </c>
       <c r="S56">
-        <v>51.700710008180394</v>
+        <v>50.623974511251944</v>
       </c>
       <c r="T56">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="U56">
-        <v>48.363798598895009</v>
+        <v>60.297842392939309</v>
       </c>
       <c r="V56">
-        <v>3.3112980769230771</v>
+        <v>3.4980085784313726</v>
       </c>
       <c r="W56">
-        <v>20170411</v>
+        <v>20170724</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Y56" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Z56" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>7990.25390625</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>5493.662109375</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>424.74609375</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F57">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>-30.963756532073521</v>
+        <v>-30.256437163529274</v>
       </c>
       <c r="L57">
-        <v>-3.2519456003638787</v>
+        <v>-2.2369790634377016</v>
       </c>
       <c r="M57">
-        <v>-50.19442890773481</v>
+        <v>-61.699244233993632</v>
       </c>
       <c r="N57">
-        <v>-6.4830736928972374</v>
+        <v>-7.0890350178829875</v>
       </c>
       <c r="O57">
-        <v>10.21825537473083</v>
-      </c>
-      <c r="P57">
-        <v>25.18006726292716</v>
-      </c>
-      <c r="Q57">
-        <v>37.074784984769749</v>
+        <v>5.6916307349100492</v>
       </c>
       <c r="R57">
-        <v>87503.173828125</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>49.6604561757105</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>69.3</v>
+        <v>66.5</v>
       </c>
       <c r="U57">
-        <v>61.709531345507564</v>
+        <v>46.292808256322274</v>
       </c>
       <c r="V57">
-        <v>4.1741071428571432</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>20170227</v>
+        <v>20170410</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y57" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="Z57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>6105.8757469108004</v>
+        <v>3030.2958984375</v>
       </c>
       <c r="C58">
-        <v>3561.5745867120258</v>
+        <v>2641.5498046875</v>
       </c>
       <c r="D58">
-        <v>211.68543578729924</v>
+        <v>158.0537109375</v>
       </c>
       <c r="E58">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5684,368 +5671,392 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>-54.782407031807281</v>
+        <v>45</v>
       </c>
       <c r="L58">
-        <v>-3.9669136306800254</v>
+        <v>4.1704365248421116</v>
       </c>
       <c r="M58">
-        <v>-67.520565602896895</v>
+        <v>-12.994616791916506</v>
       </c>
       <c r="N58">
-        <v>-6.746567267858123</v>
+        <v>-0.96402069537863566</v>
       </c>
       <c r="O58">
-        <v>6.0344958441157104</v>
+        <v>4.0437830261367935E-2</v>
       </c>
       <c r="P58">
-        <v>18.54814350807472</v>
+        <v>15.89674852373617</v>
       </c>
       <c r="Q58">
-        <v>30.445884663877962</v>
+        <v>22.144960732984298</v>
       </c>
       <c r="R58">
-        <v>50380.476309191545</v>
+        <v>26905.59375</v>
       </c>
       <c r="S58">
-        <v>46.706159837639191</v>
+        <v>53.495454610323812</v>
       </c>
       <c r="T58">
-        <v>60.8</v>
+        <v>54</v>
       </c>
       <c r="U58">
-        <v>48.284737708347045</v>
+        <v>34.947771481684086</v>
       </c>
       <c r="V58">
-        <v>3.0381945371626564</v>
+        <v>3.8067528735632186</v>
       </c>
       <c r="W58">
-        <v>20151026</v>
+        <v>20140108</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Y58" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Z58" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>6982.2863385502496</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>3420.4901017337634</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>337.71431590827376</v>
       </c>
       <c r="E59">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F59">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>19.653824058053306</v>
+        <v>4.7636416907261774</v>
       </c>
       <c r="L59">
-        <v>1.1417449653654084</v>
+        <v>0.45471888201979138</v>
       </c>
       <c r="M59">
-        <v>-52.594643368591449</v>
+        <v>-31.607502246248906</v>
       </c>
       <c r="N59">
-        <v>-4.1736984594499473</v>
+        <v>-3.3541576610795927</v>
       </c>
       <c r="O59">
-        <v>5.8596188678971828</v>
+        <v>12.297167513622639</v>
+      </c>
+      <c r="P59">
+        <v>19.528077004087557</v>
+      </c>
+      <c r="Q59">
+        <v>29.598717214015444</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>49996.90242925143</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>46.765318978352994</v>
       </c>
       <c r="T59">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="U59">
-        <v>42.712648105943977</v>
+        <v>52.032785127968573</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>3.6256159256243312</v>
       </c>
       <c r="W59">
-        <v>20170608</v>
+        <v>20140901</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Y59" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Z59" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>3240.52734375</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>2249.4140625</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>276.85546875</v>
       </c>
       <c r="E60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>-19.98310652189998</v>
+        <v>-15.945395900922856</v>
       </c>
       <c r="L60">
-        <v>-1.9722158658338196</v>
+        <v>-1.7047283190072675</v>
       </c>
       <c r="M60">
-        <v>-50.906141113770509</v>
+        <v>-47.12109639666145</v>
       </c>
       <c r="N60">
-        <v>-6.647836800020329</v>
+        <v>-6.4006515681894216</v>
       </c>
       <c r="O60">
-        <v>8.657089618331014</v>
+        <v>2.9612376817325128</v>
+      </c>
+      <c r="P60">
+        <v>19.632258959645949</v>
+      </c>
+      <c r="Q60">
+        <v>28.75871444506414</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>45718.06640625</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>49.628701456889615</v>
       </c>
       <c r="T60">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="U60">
-        <v>53.651457325979507</v>
+        <v>45.53470746285965</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>1.7786815068493151</v>
       </c>
       <c r="W60">
-        <v>20170516</v>
+        <v>20170227</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Y60" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Z60" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>2988.80859375</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>69.939843750000009</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>16.192968750000002</v>
       </c>
       <c r="E61">
         <v>14</v>
       </c>
       <c r="F61">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>-34.992020198558656</v>
+        <v>28.610459665965216</v>
       </c>
       <c r="L61">
-        <v>-3.172871222366159</v>
+        <v>1.8983129351884886</v>
       </c>
       <c r="M61">
-        <v>-15.255118703057775</v>
+        <v>-59.420773127510991</v>
       </c>
       <c r="N61">
-        <v>-1.2372564285712473</v>
+        <v>-5.8711572281746056</v>
       </c>
       <c r="O61">
-        <v>15.062583353136773</v>
+        <v>3.4186107023880652</v>
+      </c>
+      <c r="P61">
+        <v>18.587574677528728</v>
+      </c>
+      <c r="Q61">
+        <v>29.142188850475367</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>50887.954687500001</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>51.70860129602336</v>
       </c>
       <c r="T61">
-        <v>53.199999999999996</v>
+        <v>64.8</v>
       </c>
       <c r="U61">
-        <v>42.657418298952329</v>
+        <v>45.827008130860818</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>2.6565504807692308</v>
       </c>
       <c r="W61">
-        <v>20170713</v>
+        <v>20170704</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Y61" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Z61" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>604.0520795364738</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>134.09234782825831</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>58.983659329518687</v>
       </c>
       <c r="E62">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F62">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>-49.763641690726182</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>-3.7731740894809018</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>-38.15722658736906</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>-3.1636395822875039</v>
       </c>
       <c r="O62">
-        <v>2.0454720681752434</v>
+        <v>11.658325572075086</v>
+      </c>
+      <c r="P62">
+        <v>19.4351465851067</v>
+      </c>
+      <c r="Q62">
+        <v>23.57673162602703</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>35115.857930398022</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>41.296531487585362</v>
       </c>
       <c r="T62">
         <v>59.5</v>
       </c>
       <c r="U62">
-        <v>47.526269345515878</v>
+        <v>39.854152213701298</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>2.5152605557612837</v>
       </c>
       <c r="W62">
-        <v>20170720</v>
+        <v>20140627</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Y62" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Z62" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>5492.24853515625</v>
+        <v>5341.0273283547749</v>
       </c>
       <c r="C63">
-        <v>5408.935546875</v>
+        <v>3703.1651213449841</v>
       </c>
       <c r="D63">
-        <v>300.80795288085938</v>
+        <v>319.16516391350478</v>
       </c>
       <c r="E63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>166</v>
@@ -6060,232 +6071,232 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>45</v>
+        <v>-65.095231191904816</v>
       </c>
       <c r="L63">
-        <v>3.1939964638735172</v>
+        <v>-5.7836654879989444</v>
       </c>
       <c r="M63">
-        <v>-65.854458039578347</v>
+        <v>-55.007979801441337</v>
       </c>
       <c r="N63">
-        <v>-7.0959549419996186</v>
+        <v>-3.8434123651644772</v>
       </c>
       <c r="O63">
-        <v>4.0732567944798177</v>
+        <v>8.9076407035120582</v>
       </c>
       <c r="P63">
-        <v>22.307105731432163</v>
+        <v>21.399523957799573</v>
       </c>
       <c r="Q63">
-        <v>33.657841373012467</v>
+        <v>32.366988653306812</v>
       </c>
       <c r="R63">
-        <v>72213.001251220703</v>
+        <v>65993.306794590899</v>
       </c>
       <c r="S63">
-        <v>50.623974511251944</v>
+        <v>49.967528709764537</v>
       </c>
       <c r="T63">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U63">
-        <v>60.297842392939309</v>
+        <v>46.672166223297076</v>
       </c>
       <c r="V63">
-        <v>3.4980085784313726</v>
+        <v>4.4887443853942841</v>
       </c>
       <c r="W63">
-        <v>20170724</v>
+        <v>20170306</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Y63" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Z63" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>4382.0755942845017</v>
+      </c>
+      <c r="C64">
+        <v>2839.6600722617295</v>
+      </c>
+      <c r="D64">
+        <v>265.50707907214786</v>
+      </c>
+      <c r="E64">
+        <v>13</v>
+      </c>
+      <c r="F64">
+        <v>75</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>-42.273689006093733</v>
+      </c>
+      <c r="L64">
+        <v>-2.6497851628846956</v>
+      </c>
+      <c r="M64">
+        <v>-67.011283197919369</v>
+      </c>
+      <c r="N64">
+        <v>-6.8426978255235209</v>
+      </c>
+      <c r="O64">
+        <v>8.8798507697765388</v>
+      </c>
+      <c r="P64">
+        <v>20.377331782698239</v>
+      </c>
+      <c r="Q64">
+        <v>31.893452932474766</v>
+      </c>
+      <c r="R64">
+        <v>66104.721004102845</v>
+      </c>
+      <c r="S64">
+        <v>50.666967505090277</v>
+      </c>
+      <c r="T64">
+        <v>72.2</v>
+      </c>
+      <c r="U64">
+        <v>50.660500015212271</v>
+      </c>
+      <c r="V64">
+        <v>3.37139329059413</v>
+      </c>
+      <c r="W64">
+        <v>20170505</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>210.3515625</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>35</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>8.7461622625552096</v>
+      </c>
+      <c r="L65">
+        <v>0.91812300233505784</v>
+      </c>
+      <c r="M65">
+        <v>-39.805571092265197</v>
+      </c>
+      <c r="N65">
+        <v>-4.9611558046634494</v>
+      </c>
+      <c r="O65">
+        <v>5.8813647857466833</v>
+      </c>
+      <c r="P65">
+        <v>20.447470817120621</v>
+      </c>
+      <c r="Q65">
+        <v>23.848642676767675</v>
+      </c>
+      <c r="R65">
+        <v>34929.19921875</v>
+      </c>
+      <c r="S65">
+        <v>40.233589352483023</v>
+      </c>
+      <c r="T65">
         <v>57</v>
       </c>
-      <c r="B64">
-        <v>3030.2958984375</v>
-      </c>
-      <c r="C64">
-        <v>2641.5498046875</v>
-      </c>
-      <c r="D64">
-        <v>158.0537109375</v>
-      </c>
-      <c r="E64">
-        <v>11</v>
-      </c>
-      <c r="F64">
-        <v>90</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>45</v>
-      </c>
-      <c r="L64">
-        <v>4.1704365248421116</v>
-      </c>
-      <c r="M64">
-        <v>-12.994616791916506</v>
-      </c>
-      <c r="N64">
-        <v>-0.96402069537863566</v>
-      </c>
-      <c r="O64">
-        <v>4.0437830261367935E-2</v>
-      </c>
-      <c r="P64">
-        <v>15.89674852373617</v>
-      </c>
-      <c r="Q64">
-        <v>22.144960732984298</v>
-      </c>
-      <c r="R64">
-        <v>26905.59375</v>
-      </c>
-      <c r="S64">
-        <v>53.495454610323812</v>
-      </c>
-      <c r="T64">
-        <v>54</v>
-      </c>
-      <c r="U64">
-        <v>34.947771481684086</v>
-      </c>
-      <c r="V64">
-        <v>3.8067528735632186</v>
-      </c>
-      <c r="W64">
-        <v>20140108</v>
-      </c>
-      <c r="X64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
-      <c r="A65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65">
-        <v>6982.2863385502496</v>
-      </c>
-      <c r="C65">
-        <v>3420.4901017337634</v>
-      </c>
-      <c r="D65">
-        <v>337.71431590827376</v>
-      </c>
-      <c r="E65">
-        <v>11</v>
-      </c>
-      <c r="F65">
-        <v>44</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>4.7636416907261774</v>
-      </c>
-      <c r="L65">
-        <v>0.45471888201979138</v>
-      </c>
-      <c r="M65">
-        <v>-31.607502246248906</v>
-      </c>
-      <c r="N65">
-        <v>-3.3541576610795927</v>
-      </c>
-      <c r="O65">
-        <v>12.297167513622639</v>
-      </c>
-      <c r="P65">
-        <v>19.528077004087557</v>
-      </c>
-      <c r="Q65">
-        <v>29.598717214015444</v>
-      </c>
-      <c r="R65">
-        <v>49996.90242925143</v>
-      </c>
-      <c r="S65">
-        <v>46.765318978352994</v>
-      </c>
-      <c r="T65">
-        <v>63</v>
-      </c>
       <c r="U65">
-        <v>52.032785127968573</v>
+        <v>38.019841279940422</v>
       </c>
       <c r="V65">
-        <v>3.6256159256243312</v>
+        <v>1.4747191011235956</v>
       </c>
       <c r="W65">
-        <v>20140901</v>
+        <v>20100408</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Y65" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="Z65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>3240.52734375</v>
+        <v>3555.7873761432097</v>
       </c>
       <c r="C66">
-        <v>2249.4140625</v>
+        <v>2597.9169144232305</v>
       </c>
       <c r="D66">
-        <v>276.85546875</v>
+        <v>211.34261274778663</v>
       </c>
       <c r="E66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>167</v>
@@ -6300,72 +6311,72 @@
         <v>1</v>
       </c>
       <c r="K66">
-        <v>-15.945395900922856</v>
+        <v>-16.699244233993621</v>
       </c>
       <c r="L66">
-        <v>-1.7047283190072675</v>
+        <v>-1.5911403470270404</v>
       </c>
       <c r="M66">
-        <v>-47.12109639666145</v>
+        <v>-54.162347045721717</v>
       </c>
       <c r="N66">
-        <v>-6.4006515681894216</v>
+        <v>-7.3057598779127524</v>
       </c>
       <c r="O66">
-        <v>2.9612376817325128</v>
+        <v>3.3693069209865314</v>
       </c>
       <c r="P66">
-        <v>19.632258959645949</v>
+        <v>18.392767043126241</v>
       </c>
       <c r="Q66">
-        <v>28.75871444506414</v>
+        <v>29.458446183468435</v>
       </c>
       <c r="R66">
-        <v>45718.06640625</v>
+        <v>40280.790878511056</v>
       </c>
       <c r="S66">
-        <v>49.628701456889615</v>
+        <v>49.361889227714343</v>
       </c>
       <c r="T66">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U66">
-        <v>45.53470746285965</v>
+        <v>41.027250400183519</v>
       </c>
       <c r="V66">
-        <v>1.7786815068493151</v>
+        <v>1.7334055660606706</v>
       </c>
       <c r="W66">
-        <v>20170227</v>
+        <v>20161121</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Y66" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Z66" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>2988.80859375</v>
+        <v>5122.8515625</v>
       </c>
       <c r="C67">
-        <v>69.939843750000009</v>
+        <v>4597.55859375</v>
       </c>
       <c r="D67">
-        <v>16.192968750000002</v>
+        <v>513.8671875</v>
       </c>
       <c r="E67">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>167</v>
@@ -6380,155 +6391,149 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <v>28.610459665965216</v>
+        <v>28.072486935852954</v>
       </c>
       <c r="L67">
-        <v>1.8983129351884886</v>
+        <v>3.179830119864234</v>
       </c>
       <c r="M67">
-        <v>-59.420773127510991</v>
+        <v>-40.236358309273818</v>
       </c>
       <c r="N67">
-        <v>-5.8711572281746056</v>
+        <v>-5.0370915649993613</v>
       </c>
       <c r="O67">
-        <v>3.4186107023880652</v>
+        <v>12.553718107366876</v>
       </c>
       <c r="P67">
-        <v>18.587574677528728</v>
+        <v>18.381231398809526</v>
       </c>
       <c r="Q67">
-        <v>29.142188850475367</v>
+        <v>28.686699555671716</v>
       </c>
       <c r="R67">
-        <v>50887.954687500001</v>
+        <v>43610.44921875</v>
       </c>
       <c r="S67">
-        <v>51.70860129602336</v>
+        <v>49.533801860799429</v>
       </c>
       <c r="T67">
-        <v>64.8</v>
+        <v>60</v>
       </c>
       <c r="U67">
-        <v>45.827008130860818</v>
+        <v>39.957887619500731</v>
       </c>
       <c r="V67">
-        <v>2.6565504807692308</v>
+        <v>3.7522163120567376</v>
       </c>
       <c r="W67">
-        <v>20170704</v>
+        <v>20170221</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Y67" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Z67" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>604.0520795364738</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>134.09234782825831</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>58.983659329518687</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>22.619864948040426</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1.7810113805315928</v>
       </c>
       <c r="M68">
-        <v>-38.15722658736906</v>
+        <v>-46.974934010881981</v>
       </c>
       <c r="N68">
-        <v>-3.1636395822875039</v>
+        <v>-4.5714936022239794</v>
       </c>
       <c r="O68">
-        <v>11.658325572075086</v>
-      </c>
-      <c r="P68">
-        <v>19.4351465851067</v>
-      </c>
-      <c r="Q68">
-        <v>23.57673162602703</v>
+        <v>7.5035133654112514</v>
       </c>
       <c r="R68">
-        <v>35115.857930398022</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>41.296531487585362</v>
+        <v>0</v>
       </c>
       <c r="T68">
-        <v>59.5</v>
+        <v>60.299998283386081</v>
       </c>
       <c r="U68">
-        <v>39.854152213701298</v>
+        <v>43.691243402937204</v>
       </c>
       <c r="V68">
-        <v>2.5152605557612837</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>20140627</v>
+        <v>20110412</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Y68" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="Z68" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>5341.0273283547749</v>
+        <v>4902.6824638863409</v>
       </c>
       <c r="C69">
-        <v>3703.1651213449841</v>
+        <v>3904.3167303777118</v>
       </c>
       <c r="D69">
-        <v>319.16516391350478</v>
+        <v>364.29766524542345</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6540,75 +6545,75 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>-65.095231191904816</v>
+        <v>15.255118703057775</v>
       </c>
       <c r="L69">
-        <v>-5.7836654879989444</v>
+        <v>0.9687892076799931</v>
       </c>
       <c r="M69">
-        <v>-55.007979801441337</v>
+        <v>-66.250505507133255</v>
       </c>
       <c r="N69">
-        <v>-3.8434123651644772</v>
+        <v>-8.0211963959725736</v>
       </c>
       <c r="O69">
-        <v>8.9076407035120582</v>
+        <v>3.9965749305537628</v>
       </c>
       <c r="P69">
-        <v>21.399523957799573</v>
+        <v>19.900201026014734</v>
       </c>
       <c r="Q69">
-        <v>32.366988653306812</v>
+        <v>31.41539803632104</v>
       </c>
       <c r="R69">
-        <v>65993.306794590899</v>
+        <v>51858.517027454996</v>
       </c>
       <c r="S69">
-        <v>49.967528709764537</v>
+        <v>47.642722017520157</v>
       </c>
       <c r="T69">
-        <v>72</v>
+        <v>61.2</v>
       </c>
       <c r="U69">
-        <v>46.672166223297076</v>
+        <v>45.50350996031176</v>
       </c>
       <c r="V69">
-        <v>4.4887443853942841</v>
+        <v>1.9621079952250882</v>
       </c>
       <c r="W69">
-        <v>20170306</v>
+        <v>20170316</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Y69" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Z69" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>4382.0755942845017</v>
+        <v>5141.7244761363618</v>
       </c>
       <c r="C70">
-        <v>2839.6600722617295</v>
+        <v>3851.6039042967154</v>
       </c>
       <c r="D70">
-        <v>265.50707907214786</v>
+        <v>350.44355251679298</v>
       </c>
       <c r="E70">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6620,69 +6625,69 @@
         <v>1</v>
       </c>
       <c r="K70">
-        <v>-42.273689006093733</v>
+        <v>-11.309932474020213</v>
       </c>
       <c r="L70">
-        <v>-2.6497851628846956</v>
+        <v>-0.95484122135648042</v>
       </c>
       <c r="M70">
-        <v>-67.011283197919369</v>
+        <v>-41.987212495816664</v>
       </c>
       <c r="N70">
-        <v>-6.8426978255235209</v>
+        <v>-4.2891531832763636</v>
       </c>
       <c r="O70">
-        <v>8.8798507697765388</v>
+        <v>1.858732429825821</v>
       </c>
       <c r="P70">
-        <v>20.377331782698239</v>
+        <v>14.936225076164455</v>
       </c>
       <c r="Q70">
-        <v>31.893452932474766</v>
+        <v>23.310055211664046</v>
       </c>
       <c r="R70">
-        <v>66104.721004102845</v>
+        <v>26946.637921348611</v>
       </c>
       <c r="S70">
-        <v>50.666967505090277</v>
+        <v>46.510779350926327</v>
       </c>
       <c r="T70">
-        <v>72.2</v>
+        <v>52.5</v>
       </c>
       <c r="U70">
-        <v>50.660500015212271</v>
+        <v>34.647124936326946</v>
       </c>
       <c r="V70">
-        <v>3.37139329059413</v>
+        <v>2.9431817179375503</v>
       </c>
       <c r="W70">
-        <v>20170505</v>
+        <v>20141128</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Y70" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Z70" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>3555.7873761432097</v>
+        <v>7023.2954790433796</v>
       </c>
       <c r="C71">
-        <v>2597.9169144232305</v>
+        <v>4310.4692194930039</v>
       </c>
       <c r="D71">
-        <v>211.34261274778663</v>
+        <v>655.43356052293734</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71">
         <v>55</v>
@@ -6700,72 +6705,72 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>-16.699244233993621</v>
+        <v>-64.440034828176195</v>
       </c>
       <c r="L71">
-        <v>-1.5911403470270404</v>
+        <v>-5.9574132982512813</v>
       </c>
       <c r="M71">
-        <v>-54.162347045721717</v>
+        <v>-64.358994175694704</v>
       </c>
       <c r="N71">
-        <v>-7.3057598779127524</v>
+        <v>-5.9359828666251087</v>
       </c>
       <c r="O71">
-        <v>3.3693069209865314</v>
+        <v>11.689339909029627</v>
       </c>
       <c r="P71">
-        <v>18.392767043126241</v>
+        <v>16.513269488439988</v>
       </c>
       <c r="Q71">
-        <v>29.458446183468435</v>
+        <v>27.241429335210388</v>
       </c>
       <c r="R71">
-        <v>40280.790878511056</v>
+        <v>38630.45920997818</v>
       </c>
       <c r="S71">
-        <v>49.361889227714343</v>
+        <v>48.174953939201323</v>
       </c>
       <c r="T71">
-        <v>54</v>
+        <v>59.2</v>
       </c>
       <c r="U71">
-        <v>41.027250400183519</v>
+        <v>40.913193332429188</v>
       </c>
       <c r="V71">
-        <v>1.7334055660606706</v>
+        <v>4.0569523615130407</v>
       </c>
       <c r="W71">
-        <v>20161121</v>
+        <v>20151009</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Y71" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Z71" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>5122.8515625</v>
+        <v>4231.3473170871312</v>
       </c>
       <c r="C72">
-        <v>4597.55859375</v>
+        <v>3226.7757987000837</v>
       </c>
       <c r="D72">
-        <v>513.8671875</v>
+        <v>381.06125855929952</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F72">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>167</v>
@@ -6780,75 +6785,75 @@
         <v>1</v>
       </c>
       <c r="K72">
-        <v>28.072486935852954</v>
+        <v>-45</v>
       </c>
       <c r="L72">
-        <v>3.179830119864234</v>
+        <v>-5.440332272747975</v>
       </c>
       <c r="M72">
-        <v>-40.236358309273818</v>
+        <v>-56.309932474020215</v>
       </c>
       <c r="N72">
-        <v>-5.0370915649993613</v>
+        <v>-8.1301027127406407</v>
       </c>
       <c r="O72">
-        <v>12.553718107366876</v>
+        <v>11.591863561066404</v>
       </c>
       <c r="P72">
-        <v>18.381231398809526</v>
+        <v>18.145844514517243</v>
       </c>
       <c r="Q72">
-        <v>28.686699555671716</v>
+        <v>28.000868486046315</v>
       </c>
       <c r="R72">
-        <v>43610.44921875</v>
+        <v>36535.840001249853</v>
       </c>
       <c r="S72">
-        <v>49.533801860799429</v>
+        <v>52.776844242722262</v>
       </c>
       <c r="T72">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U72">
-        <v>39.957887619500731</v>
+        <v>40.073332261381914</v>
       </c>
       <c r="V72">
-        <v>3.7522163120567376</v>
+        <v>3.5535715874283311</v>
       </c>
       <c r="W72">
-        <v>20170221</v>
+        <v>20150925</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Y72" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Z72" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>4902.6824638863409</v>
+        <v>8237.5455571795228</v>
       </c>
       <c r="C73">
-        <v>3904.3167303777118</v>
+        <v>6032.4401436778962</v>
       </c>
       <c r="D73">
-        <v>364.29766524542345</v>
+        <v>608.94179194351409</v>
       </c>
       <c r="E73">
         <v>12</v>
       </c>
       <c r="F73">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6860,72 +6865,72 @@
         <v>1</v>
       </c>
       <c r="K73">
-        <v>15.255118703057775</v>
+        <v>29.357753542791272</v>
       </c>
       <c r="L73">
-        <v>0.9687892076799931</v>
+        <v>1.780784371605328</v>
       </c>
       <c r="M73">
-        <v>-66.250505507133255</v>
+        <v>-55.713123022791038</v>
       </c>
       <c r="N73">
-        <v>-8.0211963959725736</v>
+        <v>-4.6345914744550392</v>
       </c>
       <c r="O73">
-        <v>3.9965749305537628</v>
+        <v>18.912007027921092</v>
       </c>
       <c r="P73">
-        <v>19.900201026014734</v>
+        <v>18.827049802899889</v>
       </c>
       <c r="Q73">
-        <v>31.41539803632104</v>
+        <v>30.143904475883566</v>
       </c>
       <c r="R73">
-        <v>51858.517027454996</v>
+        <v>57853.268753017648</v>
       </c>
       <c r="S73">
-        <v>47.642722017520157</v>
+        <v>49.371129641635555</v>
       </c>
       <c r="T73">
-        <v>61.2</v>
+        <v>70</v>
       </c>
       <c r="U73">
-        <v>45.50350996031176</v>
+        <v>39.747140563507905</v>
       </c>
       <c r="V73">
-        <v>1.9621079952250882</v>
+        <v>4.0073359914822086</v>
       </c>
       <c r="W73">
-        <v>20170316</v>
+        <v>20170504</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Y73" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Z73" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>5141.7244761363618</v>
+        <v>3996.2703175947731</v>
       </c>
       <c r="C74">
-        <v>3851.6039042967154</v>
+        <v>2679.7502129672403</v>
       </c>
       <c r="D74">
-        <v>350.44355251679298</v>
+        <v>302.40002403257523</v>
       </c>
       <c r="E74">
         <v>10</v>
       </c>
       <c r="F74">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>166</v>
@@ -6940,72 +6945,72 @@
         <v>1</v>
       </c>
       <c r="K74">
-        <v>-11.309932474020213</v>
+        <v>31.607502246248906</v>
       </c>
       <c r="L74">
-        <v>-0.95484122135648042</v>
+        <v>3.5214535164999989</v>
       </c>
       <c r="M74">
-        <v>-41.987212495816664</v>
+        <v>-40.236358309273818</v>
       </c>
       <c r="N74">
-        <v>-4.2891531832763636</v>
+        <v>-4.8365836370120228</v>
       </c>
       <c r="O74">
-        <v>1.858732429825821</v>
+        <v>3.0214003686829187</v>
       </c>
       <c r="P74">
-        <v>14.936225076164455</v>
+        <v>16.728078038688114</v>
       </c>
       <c r="Q74">
-        <v>23.310055211664046</v>
+        <v>25.505325827121318</v>
       </c>
       <c r="R74">
-        <v>26946.637921348611</v>
+        <v>32213.70256011299</v>
       </c>
       <c r="S74">
-        <v>46.510779350926327</v>
+        <v>44.901323217269571</v>
       </c>
       <c r="T74">
-        <v>52.5</v>
+        <v>54</v>
       </c>
       <c r="U74">
-        <v>34.647124936326946</v>
+        <v>33.576736651151428</v>
       </c>
       <c r="V74">
-        <v>2.9431817179375503</v>
+        <v>1.7886364347103336</v>
       </c>
       <c r="W74">
-        <v>20141128</v>
+        <v>20160408</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y74" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Z74" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>5839.3706230659927</v>
+      </c>
+      <c r="C75">
+        <v>4823.7253972690451</v>
+      </c>
+      <c r="D75">
+        <v>251.7500804722379</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
         <v>70</v>
-      </c>
-      <c r="B75">
-        <v>7023.2954790433796</v>
-      </c>
-      <c r="C75">
-        <v>4310.4692194930039</v>
-      </c>
-      <c r="D75">
-        <v>655.43356052293734</v>
-      </c>
-      <c r="E75">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <v>55</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>167</v>
@@ -7020,72 +7025,72 @@
         <v>1</v>
       </c>
       <c r="K75">
-        <v>-64.440034828176195</v>
+        <v>24.443954780416536</v>
       </c>
       <c r="L75">
-        <v>-5.9574132982512813</v>
+        <v>1.439178465104505</v>
       </c>
       <c r="M75">
-        <v>-64.358994175694704</v>
+        <v>-66.037511025421821</v>
       </c>
       <c r="N75">
-        <v>-5.9359828666251087</v>
+        <v>-7.0890352752615833</v>
       </c>
       <c r="O75">
-        <v>11.689339909029627</v>
+        <v>14.36540540285857</v>
       </c>
       <c r="P75">
-        <v>16.513269488439988</v>
+        <v>16.486173246553612</v>
       </c>
       <c r="Q75">
-        <v>27.241429335210388</v>
+        <v>27.887408772211074</v>
       </c>
       <c r="R75">
-        <v>38630.45920997818</v>
+        <v>36000.523474315109</v>
       </c>
       <c r="S75">
-        <v>48.174953939201323</v>
+        <v>44.412629211231781</v>
       </c>
       <c r="T75">
-        <v>59.2</v>
+        <v>52.5</v>
       </c>
       <c r="U75">
-        <v>40.913193332429188</v>
+        <v>38.503689998176121</v>
       </c>
       <c r="V75">
-        <v>4.0569523615130407</v>
+        <v>2.3839154898856347</v>
       </c>
       <c r="W75">
-        <v>20151009</v>
+        <v>20170630</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Y75" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>4231.3473170871312</v>
+        <v>5014.4409591977765</v>
       </c>
       <c r="C76">
-        <v>3226.7757987000837</v>
+        <v>4231.6542662853781</v>
       </c>
       <c r="D76">
-        <v>381.06125855929952</v>
+        <v>375.86994324824866</v>
       </c>
       <c r="E76">
         <v>10</v>
       </c>
       <c r="F76">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>167</v>
@@ -7100,72 +7105,72 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>-45</v>
+        <v>39.289406862500357</v>
       </c>
       <c r="L76">
-        <v>-5.440332272747975</v>
+        <v>2.6653497226254466</v>
       </c>
       <c r="M76">
-        <v>-56.309932474020215</v>
+        <v>-50.19442890773481</v>
       </c>
       <c r="N76">
-        <v>-8.1301027127406407</v>
+        <v>-3.9059398638059308</v>
       </c>
       <c r="O76">
-        <v>11.591863561066404</v>
+        <v>14.092359307007598</v>
       </c>
       <c r="P76">
-        <v>18.145844514517243</v>
+        <v>20.603564846112519</v>
       </c>
       <c r="Q76">
-        <v>28.000868486046315</v>
+        <v>28.857133829533822</v>
       </c>
       <c r="R76">
-        <v>36535.840001249853</v>
+        <v>54257.984201074796</v>
       </c>
       <c r="S76">
-        <v>52.776844242722262</v>
+        <v>50.431379598672102</v>
       </c>
       <c r="T76">
-        <v>54</v>
+        <v>61.199999999999996</v>
       </c>
       <c r="U76">
-        <v>40.073332261381914</v>
+        <v>44.85834292206161</v>
       </c>
       <c r="V76">
-        <v>3.5535715874283311</v>
+        <v>5.1866565457009361</v>
       </c>
       <c r="W76">
-        <v>20150925</v>
+        <v>20170629</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Y76" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Z76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>8237.5455571795228</v>
+        <v>3450.4896008067744</v>
       </c>
       <c r="C77">
-        <v>6032.4401436778962</v>
+        <v>1960.5929971094531</v>
       </c>
       <c r="D77">
-        <v>608.94179194351409</v>
+        <v>224.17782403098266</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>166</v>
@@ -7180,156 +7185,156 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>29.357753542791272</v>
+        <v>-19.98310652189998</v>
       </c>
       <c r="L77">
-        <v>1.780784371605328</v>
+        <v>-2.0025328978877672</v>
       </c>
       <c r="M77">
-        <v>-55.713123022791038</v>
+        <v>-47.290610042638534</v>
       </c>
       <c r="N77">
-        <v>-4.6345914744550392</v>
+        <v>-5.9468623636681279</v>
       </c>
       <c r="O77">
-        <v>18.912007027921092</v>
+        <v>8.8286103895133579</v>
       </c>
       <c r="P77">
-        <v>18.827049802899889</v>
+        <v>18.162728856329341</v>
       </c>
       <c r="Q77">
-        <v>30.143904475883566</v>
+        <v>28.021479899814175</v>
       </c>
       <c r="R77">
-        <v>57853.268753017648</v>
+        <v>44874.468517926995</v>
       </c>
       <c r="S77">
-        <v>49.371129641635555</v>
+        <v>48.520653378091346</v>
       </c>
       <c r="T77">
-        <v>70</v>
+        <v>55.466674804687358</v>
       </c>
       <c r="U77">
-        <v>39.747140563507905</v>
+        <v>43.99274897721029</v>
       </c>
       <c r="V77">
-        <v>4.0073359914822086</v>
+        <v>1.598997541388171</v>
       </c>
       <c r="W77">
-        <v>20170504</v>
+        <v>20101112</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y77" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="Z77" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>3996.2703175947731</v>
+        <v>4053.3638000488281</v>
       </c>
       <c r="C78">
-        <v>2679.7502129672403</v>
+        <v>4421.7300415039062</v>
       </c>
       <c r="D78">
-        <v>302.40002403257523</v>
+        <v>269.96612548828125</v>
       </c>
       <c r="E78">
         <v>10</v>
       </c>
       <c r="F78">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>47.726310993906267</v>
+      </c>
+      <c r="L78">
+        <v>3.5126326103888164</v>
+      </c>
+      <c r="M78">
+        <v>-64.440034828176195</v>
+      </c>
+      <c r="N78">
+        <v>-6.6551897416841399</v>
+      </c>
+      <c r="O78">
+        <v>2.5275775907735465</v>
+      </c>
+      <c r="P78">
+        <v>17.394679588607595</v>
+      </c>
+      <c r="Q78">
+        <v>27.756034364510718</v>
+      </c>
+      <c r="R78">
+        <v>37216.072082519531</v>
+      </c>
+      <c r="S78">
+        <v>46.415458164942372</v>
+      </c>
+      <c r="T78">
+        <v>52.5</v>
+      </c>
+      <c r="U78">
+        <v>52.501127561118821</v>
+      </c>
+      <c r="V78">
+        <v>2.1738027597402598</v>
+      </c>
+      <c r="W78">
+        <v>20170724</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7464.2229080200195</v>
+      </c>
+      <c r="C79">
+        <v>6178.4791946411133</v>
+      </c>
+      <c r="D79">
+        <v>659.69467163085938</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>55</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>31.607502246248906</v>
-      </c>
-      <c r="L78">
-        <v>3.5214535164999989</v>
-      </c>
-      <c r="M78">
-        <v>-40.236358309273818</v>
-      </c>
-      <c r="N78">
-        <v>-4.8365836370120228</v>
-      </c>
-      <c r="O78">
-        <v>3.0214003686829187</v>
-      </c>
-      <c r="P78">
-        <v>16.728078038688114</v>
-      </c>
-      <c r="Q78">
-        <v>25.505325827121318</v>
-      </c>
-      <c r="R78">
-        <v>32213.70256011299</v>
-      </c>
-      <c r="S78">
-        <v>44.901323217269571</v>
-      </c>
-      <c r="T78">
-        <v>54</v>
-      </c>
-      <c r="U78">
-        <v>33.576736651151428</v>
-      </c>
-      <c r="V78">
-        <v>1.7886364347103336</v>
-      </c>
-      <c r="W78">
-        <v>20160408</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26">
-      <c r="A79" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79">
-        <v>5839.3706230659927</v>
-      </c>
-      <c r="C79">
-        <v>4823.7253972690451</v>
-      </c>
-      <c r="D79">
-        <v>251.7500804722379</v>
-      </c>
-      <c r="E79">
-        <v>11</v>
-      </c>
-      <c r="F79">
-        <v>70</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H79">
         <v>1</v>
       </c>
@@ -7340,72 +7345,72 @@
         <v>1</v>
       </c>
       <c r="K79">
-        <v>24.443954780416536</v>
+        <v>40.914383220025123</v>
       </c>
       <c r="L79">
-        <v>1.439178465104505</v>
+        <v>4.1492332906859026</v>
       </c>
       <c r="M79">
-        <v>-66.037511025421821</v>
+        <v>-59.743562836470737</v>
       </c>
       <c r="N79">
-        <v>-7.0890352752615833</v>
+        <v>-8.1659090146664877</v>
       </c>
       <c r="O79">
-        <v>14.36540540285857</v>
+        <v>6.8306530601418274</v>
       </c>
       <c r="P79">
-        <v>16.486173246553612</v>
+        <v>21.052535752118644</v>
       </c>
       <c r="Q79">
-        <v>27.887408772211074</v>
+        <v>34.777336652029078</v>
       </c>
       <c r="R79">
-        <v>36000.523474315109</v>
+        <v>66495.480537414551</v>
       </c>
       <c r="S79">
-        <v>44.412629211231781</v>
+        <v>52.193484037849835</v>
       </c>
       <c r="T79">
-        <v>52.5</v>
+        <v>73.5</v>
       </c>
       <c r="U79">
-        <v>38.503689998176121</v>
+        <v>46.982598705138123</v>
       </c>
       <c r="V79">
-        <v>2.3839154898856347</v>
+        <v>-0.673828125</v>
       </c>
       <c r="W79">
-        <v>20170630</v>
+        <v>20120817</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Y79" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="Z79" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>5014.4409591977765</v>
+        <v>2149.3334614435748</v>
       </c>
       <c r="C80">
-        <v>4231.6542662853781</v>
+        <v>2705.3334945837555</v>
       </c>
       <c r="D80">
-        <v>375.86994324824866</v>
+        <v>379.00002259015895</v>
       </c>
       <c r="E80">
         <v>10</v>
       </c>
       <c r="F80">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>167</v>
@@ -7420,158 +7425,155 @@
         <v>1</v>
       </c>
       <c r="K80">
-        <v>39.289406862500357</v>
+        <v>-18.43494882292201</v>
       </c>
       <c r="L80">
-        <v>2.6653497226254466</v>
+        <v>-2.1210964598173079</v>
       </c>
       <c r="M80">
-        <v>-50.19442890773481</v>
+        <v>-33.690067525979785</v>
       </c>
       <c r="N80">
-        <v>-3.9059398638059308</v>
+        <v>-4.2363949248535837</v>
       </c>
       <c r="O80">
-        <v>14.092359307007598</v>
+        <v>4.307587251716285</v>
       </c>
       <c r="P80">
-        <v>20.603564846112519</v>
+        <v>15.305240570155986</v>
       </c>
       <c r="Q80">
-        <v>28.857133829533822</v>
+        <v>25.874086455538301</v>
       </c>
       <c r="R80">
-        <v>54257.984201074796</v>
+        <v>38416.668956478294</v>
       </c>
       <c r="S80">
-        <v>50.431379598672102</v>
+        <v>42.430132941613927</v>
       </c>
       <c r="T80">
-        <v>61.199999999999996</v>
+        <v>54</v>
       </c>
       <c r="U80">
-        <v>44.85834292206161</v>
+        <v>47.020619015966602</v>
       </c>
       <c r="V80">
-        <v>5.1866565457009361</v>
+        <v>2.9580053374992512</v>
       </c>
       <c r="W80">
-        <v>20170629</v>
+        <v>20091119</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Y80" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="Z80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>4053.3638000488281</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>4421.7300415039063</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>269.96612548828125</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F81">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>167</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>47.726310993906267</v>
+        <v>67.380135051959584</v>
       </c>
       <c r="L81">
-        <v>3.5126326103888164</v>
+        <v>8.1857986982980151</v>
       </c>
       <c r="M81">
-        <v>-64.440034828176195</v>
+        <v>-63.43494882292201</v>
       </c>
       <c r="N81">
-        <v>-6.6551897416841399</v>
+        <v>-6.8356755356566898</v>
       </c>
       <c r="O81">
-        <v>2.5275775907735465</v>
-      </c>
-      <c r="P81">
-        <v>17.394679588607595</v>
-      </c>
-      <c r="Q81">
-        <v>27.756034364510718</v>
+        <v>2.5773253300731653</v>
       </c>
       <c r="R81">
-        <v>37216.072082519531</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>46.415458164942372</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>52.5</v>
+        <v>61.2</v>
       </c>
       <c r="U81">
-        <v>52.501127561118821</v>
+        <v>53.262993381828693</v>
       </c>
       <c r="V81">
-        <v>2.1738027597402598</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>20170724</v>
+        <v>20170529</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Y81" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="Z81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Z81">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
